--- a/Results/results_Nwalking_arm_ankle_l3o.xlsx
+++ b/Results/results_Nwalking_arm_ankle_l3o.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="431">
   <si>
     <t>selected_batch</t>
   </si>
@@ -64,114 +64,1489 @@
     <t>0_5</t>
   </si>
   <si>
-    <t>[317. 309. 329.]</t>
-  </si>
-  <si>
-    <t>[315. 318. 307.]</t>
-  </si>
-  <si>
-    <t>[331. 324. 314.]</t>
-  </si>
-  <si>
-    <t>[308. 332. 344.]</t>
-  </si>
-  <si>
-    <t>[304. 330. 320.]</t>
-  </si>
-  <si>
-    <t>[300. 333. 335. 332. 301. 313.]</t>
-  </si>
-  <si>
-    <t>[310. 328. 346. 314. 304. 319.]</t>
-  </si>
-  <si>
-    <t>[332. 329. 318. 333. 304. 325.]</t>
-  </si>
-  <si>
-    <t>[320. 319. 309. 340. 322. 348.]</t>
-  </si>
-  <si>
-    <t>[321. 309. 310. 324. 340. 331.]</t>
-  </si>
-  <si>
-    <t>[0.8268597722053528, 0.8969717025756836, 0.9065174460411072, 0.9109611511230469, 0.9203423261642456, 0.921658992767334, 0.9272547960281372, 0.9381172060966492, 0.940092146396637, 0.9364713430404663, 0.9392692446708679, 0.9484858512878418, 0.9484858512878418, 0.9530941247940063, 0.9581961631774902, 0.9565503597259521, 0.9591836929321289, 0.9631336331367493, 0.9674127697944641, 0.9614878296852112, 0.9636273980140686, 0.9720210433006287, 0.9672482013702393, 0.9692232012748718, 0.9702106714248657, 0.9654377698898315, 0.9748189449310303, 0.9784397482872009, 0.9769585132598877, 0.9790980815887451, 0.9777814149856567, 0.9797564148902893, 0.9784397482872009, 0.9823897480964661, 0.9805793166160583, 0.9823897480964661]</t>
-  </si>
-  <si>
-    <t>[0.8126188516616821, 0.8808988928794861, 0.9066551327705383, 0.903716504573822, 0.9111495018005371, 0.920829713344574, 0.9248055219650269, 0.9301642179489136, 0.9355229139328003, 0.9429559111595154, 0.9458945393562317, 0.9484874606132507, 0.9457216858863831, 0.9505618214607239, 0.9597234129905701, 0.9557476043701172, 0.9595505595207214, 0.9638720750808716, 0.9673293232917786, 0.9675021767616272, 0.9726879596710205]</t>
-  </si>
-  <si>
-    <t>[0.8293032050132751, 0.8881641626358032, 0.8937321305274963, 0.9074133038520813, 0.9202990531921387, 0.9201399683952332, 0.9280941486358643, 0.9285714030265808, 0.9387527704238892, 0.9425708055496216, 0.9486159682273865, 0.9457524418830872, 0.9471842050552368, 0.9543429613113403, 0.9584791660308838, 0.9541838765144348, 0.9622971415519714, 0.9629334807395935, 0.967387855052948]</t>
-  </si>
-  <si>
-    <t>[0.8339270353317261, 0.8946564793586731, 0.9043257236480713, 0.9112807512283325, 0.9201017618179321, 0.925699770450592, 0.9294317364692688, 0.9402883648872375, 0.9360474944114685, 0.9362171292304993, 0.9511450529098511, 0.9545377492904663, 0.9511450529098511, 0.9547073841094971, 0.9623409509658813, 0.9628498554229736, 0.9591178894042969, 0.95759117603302, 0.9655640125274658, 0.9679389595985413, 0.9657336473464966, 0.9692960381507874, 0.9721798300743103, 0.9748939871788025, 0.9772688746452332, 0.9782866835594177, 0.9743850827217102, 0.978117048740387, 0.9757421612739563]</t>
-  </si>
-  <si>
-    <t>[0.8428763747215271, 0.8979454636573792, 0.9179858565330505, 0.9215223789215088, 0.9277534484863281, 0.9334793090820312, 0.9373526573181152, 0.9425732493400574, 0.947625458240509, 0.948467493057251, 0.9552037715911865, 0.955035388469696, 0.9582350850105286, 0.9602559804916382, 0.9674974679946899, 0.9664870500564575, 0.9659818410873413, 0.9653081893920898, 0.96968674659729, 0.9732233285903931, 0.973560094833374, 0.9781070947647095, 0.9782755374908447, 0.9787807464599609, 0.9821488857269287, 0.9794543385505676]</t>
-  </si>
-  <si>
-    <t>[0.9032257795333862, 0.9119623899459839, 0.9038978219032288, 0.9038978219032288, 0.9159946441650391, 0.9166666865348816, 0.9012096524238586, 0.8965053558349609, 0.8823924660682678, 0.9166666865348816, 0.9079301357269287, 0.8911290168762207, 0.8965053558349609, 0.9159946441650391, 0.9018816947937012, 0.8985214829444885, 0.9005376100540161, 0.9106183052062988, 0.899193525314331, 0.875, 0.9180107712745667, 0.8931451439857483, 0.913306474685669, 0.897849440574646, 0.8823924660682678, 0.9012096524238586, 0.914650559425354, 0.9112903475761414, 0.8844085931777954, 0.8985214829444885, 0.8810483813285828, 0.9126344323158264, 0.899193525314331, 0.8911290168762207, 0.9059139490127563, 0.8944892287254333]</t>
-  </si>
-  <si>
-    <t>[0.9063941836357117, 0.9116677641868591, 0.9077125787734985, 0.9077125787734985, 0.9110085964202881, 0.9228740930557251, 0.9096902012825012, 0.9143045544624329, 0.913645327091217, 0.9123269319534302, 0.9110085964202881, 0.9077125787734985, 0.9011206030845642, 0.9077125787734985, 0.9176005125045776, 0.912986159324646, 0.9090309739112854, 0.9077125787734985, 0.90177983045578, 0.9070534110069275, 0.9050757884979248]</t>
-  </si>
-  <si>
-    <t>[0.9444444179534912, 0.9468954205513, 0.9501634240150452, 0.9526143670082092, 0.9509803652763367, 0.9444444179534912, 0.9509803652763367, 0.9509803652763367, 0.9493464231491089, 0.9338235259056091, 0.9477124214172363, 0.9419934749603271, 0.9501634240150452, 0.9411764740943909, 0.9460784196853638, 0.9436274766921997, 0.9379084706306458, 0.9468954205513, 0.9403594732284546]</t>
-  </si>
-  <si>
-    <t>[0.8548963665962219, 0.8713366985321045, 0.8663330674171448, 0.8706218600273132, 0.8627591133117676, 0.8663330674171448, 0.8763402700424194, 0.8756254315376282, 0.873481035232544, 0.8677626848220825, 0.8598999381065369, 0.8420300483703613, 0.8741958737373352, 0.8799142241477966, 0.8691923022270203, 0.8756254315376282, 0.8756254315376282, 0.8727662563323975, 0.8770550489425659, 0.8663330674171448, 0.8699070811271667, 0.8727662563323975, 0.8727662563323975, 0.868477463722229, 0.8741958737373352, 0.873481035232544, 0.8791994452476501, 0.868477463722229, 0.8691923022270203]</t>
-  </si>
-  <si>
-    <t>[0.8431703448295593, 0.8659359216690063, 0.861720085144043, 0.8718380928039551, 0.8760539889335632, 0.8802698254585266, 0.8752108216285706, 0.8735244274139404, 0.8777403235435486, 0.881956160068512, 0.8903878331184387, 0.8853288292884827, 0.8676222562789917, 0.8836424946784973, 0.8735244274139404, 0.8811129927635193, 0.8811129927635193, 0.8878583312034607, 0.8802698254585266, 0.866779088973999, 0.8802698254585266, 0.8903878331184387, 0.8777403235435486, 0.8853288292884827, 0.8726812601089478, 0.8684654235839844]</t>
-  </si>
-  <si>
-    <t>[[189   2  28]
- [  3  41   1]
- [ 41   0 153]]</t>
-  </si>
-  <si>
-    <t>[[319   1  13]
- [ 12   5   2]
- [ 22   0 346]]</t>
-  </si>
-  <si>
-    <t>[[286   0   4]
- [ 17  57   0]
- [ 64   0  84]]</t>
-  </si>
-  <si>
-    <t>[[372   0   9]
+    <t>0_6</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>1_3</t>
+  </si>
+  <si>
+    <t>1_4</t>
+  </si>
+  <si>
+    <t>1_5</t>
+  </si>
+  <si>
+    <t>1_6</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>2_5</t>
+  </si>
+  <si>
+    <t>2_6</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>3_2</t>
+  </si>
+  <si>
+    <t>3_3</t>
+  </si>
+  <si>
+    <t>3_4</t>
+  </si>
+  <si>
+    <t>3_5</t>
+  </si>
+  <si>
+    <t>3_6</t>
+  </si>
+  <si>
+    <t>4_1</t>
+  </si>
+  <si>
+    <t>4_2</t>
+  </si>
+  <si>
+    <t>4_3</t>
+  </si>
+  <si>
+    <t>4_4</t>
+  </si>
+  <si>
+    <t>4_5</t>
+  </si>
+  <si>
+    <t>4_6</t>
+  </si>
+  <si>
+    <t>5_1</t>
+  </si>
+  <si>
+    <t>5_2</t>
+  </si>
+  <si>
+    <t>5_3</t>
+  </si>
+  <si>
+    <t>5_4</t>
+  </si>
+  <si>
+    <t>5_5</t>
+  </si>
+  <si>
+    <t>5_6</t>
+  </si>
+  <si>
+    <t>6_1</t>
+  </si>
+  <si>
+    <t>6_2</t>
+  </si>
+  <si>
+    <t>6_3</t>
+  </si>
+  <si>
+    <t>6_4</t>
+  </si>
+  <si>
+    <t>6_5</t>
+  </si>
+  <si>
+    <t>6_6</t>
+  </si>
+  <si>
+    <t>7_1</t>
+  </si>
+  <si>
+    <t>7_2</t>
+  </si>
+  <si>
+    <t>7_3</t>
+  </si>
+  <si>
+    <t>7_4</t>
+  </si>
+  <si>
+    <t>7_5</t>
+  </si>
+  <si>
+    <t>7_6</t>
+  </si>
+  <si>
+    <t>8_1</t>
+  </si>
+  <si>
+    <t>8_2</t>
+  </si>
+  <si>
+    <t>8_3</t>
+  </si>
+  <si>
+    <t>8_4</t>
+  </si>
+  <si>
+    <t>8_5</t>
+  </si>
+  <si>
+    <t>8_6</t>
+  </si>
+  <si>
+    <t>9_1</t>
+  </si>
+  <si>
+    <t>9_2</t>
+  </si>
+  <si>
+    <t>9_3</t>
+  </si>
+  <si>
+    <t>9_4</t>
+  </si>
+  <si>
+    <t>9_5</t>
+  </si>
+  <si>
+    <t>9_6</t>
+  </si>
+  <si>
+    <t>[315. 320. 318.]</t>
+  </si>
+  <si>
+    <t>[332. 323. 309.]</t>
+  </si>
+  <si>
+    <t>[317. 330. 331.]</t>
+  </si>
+  <si>
+    <t>[305. 344. 314.]</t>
+  </si>
+  <si>
+    <t>[308. 324. 329.]</t>
+  </si>
+  <si>
+    <t>[304. 307. 348.]</t>
+  </si>
+  <si>
+    <t>[304. 344. 305.]</t>
+  </si>
+  <si>
+    <t>[320. 323. 332.]</t>
+  </si>
+  <si>
+    <t>[317. 330. 329.]</t>
+  </si>
+  <si>
+    <t>[309. 314. 307.]</t>
+  </si>
+  <si>
+    <t>[318. 348. 308.]</t>
+  </si>
+  <si>
+    <t>[331. 324. 315.]</t>
+  </si>
+  <si>
+    <t>[332. 330. 331.]</t>
+  </si>
+  <si>
+    <t>[317. 307. 348.]</t>
+  </si>
+  <si>
+    <t>[315. 323. 314.]</t>
+  </si>
+  <si>
+    <t>[320. 324. 304.]</t>
+  </si>
+  <si>
+    <t>[329. 308. 309.]</t>
+  </si>
+  <si>
+    <t>[305. 318. 344.]</t>
+  </si>
+  <si>
+    <t>[305. 332. 324.]</t>
+  </si>
+  <si>
+    <t>[307. 309. 344.]</t>
+  </si>
+  <si>
+    <t>[323. 317. 308.]</t>
+  </si>
+  <si>
+    <t>[320. 304. 318.]</t>
+  </si>
+  <si>
+    <t>[329. 314. 348.]</t>
+  </si>
+  <si>
+    <t>[330. 331. 315.]</t>
+  </si>
+  <si>
+    <t>[329. 315. 318.]</t>
+  </si>
+  <si>
+    <t>[320. 304. 307.]</t>
+  </si>
+  <si>
+    <t>[305. 331. 309.]</t>
+  </si>
+  <si>
+    <t>[317. 330. 348.]</t>
+  </si>
+  <si>
+    <t>[323. 324. 344.]</t>
+  </si>
+  <si>
+    <t>[332. 314. 308.]</t>
+  </si>
+  <si>
+    <t>[308. 344. 305.]</t>
+  </si>
+  <si>
+    <t>[318. 332. 324.]</t>
+  </si>
+  <si>
+    <t>[320. 323. 329.]</t>
+  </si>
+  <si>
+    <t>[307. 315. 348.]</t>
+  </si>
+  <si>
+    <t>[309. 304. 330.]</t>
+  </si>
+  <si>
+    <t>[331. 314. 317.]</t>
+  </si>
+  <si>
+    <t>[317. 324. 344.]</t>
+  </si>
+  <si>
+    <t>[348. 332. 314.]</t>
+  </si>
+  <si>
+    <t>[305. 304. 309.]</t>
+  </si>
+  <si>
+    <t>[307. 320. 329.]</t>
+  </si>
+  <si>
+    <t>[308. 318. 315.]</t>
+  </si>
+  <si>
+    <t>[330. 331. 323.]</t>
+  </si>
+  <si>
+    <t>[314. 317. 323.]</t>
+  </si>
+  <si>
+    <t>[307. 318. 309.]</t>
+  </si>
+  <si>
+    <t>[348. 305. 332.]</t>
+  </si>
+  <si>
+    <t>[324. 308. 330.]</t>
+  </si>
+  <si>
+    <t>[315. 331. 329.]</t>
+  </si>
+  <si>
+    <t>[320. 344. 304.]</t>
+  </si>
+  <si>
+    <t>[317. 305. 330.]</t>
+  </si>
+  <si>
+    <t>[320. 304. 308.]</t>
+  </si>
+  <si>
+    <t>[348. 331. 318.]</t>
+  </si>
+  <si>
+    <t>[309. 307. 344.]</t>
+  </si>
+  <si>
+    <t>[314. 315. 323.]</t>
+  </si>
+  <si>
+    <t>[329. 324. 332.]</t>
+  </si>
+  <si>
+    <t>[330. 329. 315.]</t>
+  </si>
+  <si>
+    <t>[305. 348. 320.]</t>
+  </si>
+  <si>
+    <t>[304. 323. 332.]</t>
+  </si>
+  <si>
+    <t>[324. 307. 314.]</t>
+  </si>
+  <si>
+    <t>[331. 317. 318.]</t>
+  </si>
+  <si>
+    <t>[344. 308. 309.]</t>
+  </si>
+  <si>
+    <t>[306. 312. 332. 323. 313. 309.]</t>
+  </si>
+  <si>
+    <t>[322. 330. 315. 329. 344. 335.]</t>
+  </si>
+  <si>
+    <t>[300. 324. 329. 306. 335. 320.]</t>
+  </si>
+  <si>
+    <t>[330. 317. 321. 324. 320. 307.]</t>
+  </si>
+  <si>
+    <t>[309. 340. 332. 305. 307. 313.]</t>
+  </si>
+  <si>
+    <t>[332. 314. 323. 300. 331. 305.]</t>
+  </si>
+  <si>
+    <t>[320. 333. 307. 306. 331. 308.]</t>
+  </si>
+  <si>
+    <t>[317. 321. 324. 307. 333. 302.]</t>
+  </si>
+  <si>
+    <t>[331. 340. 304. 342. 344. 307.]</t>
+  </si>
+  <si>
+    <t>[300. 329. 306. 328. 319. 332.]</t>
+  </si>
+  <si>
+    <t>[302. 324. 346. 328. 305. 327.]</t>
+  </si>
+  <si>
+    <t>[312. 321. 305. 306. 332. 327.]</t>
+  </si>
+  <si>
+    <t>[344. 335. 312. 324. 305. 342.]</t>
+  </si>
+  <si>
+    <t>[308. 326. 333. 313. 319. 346.]</t>
+  </si>
+  <si>
+    <t>[308. 318. 331. 305. 329. 307.]</t>
+  </si>
+  <si>
+    <t>[315. 307. 321. 317. 348. 310.]</t>
+  </si>
+  <si>
+    <t>[330. 327. 313. 342. 317. 346.]</t>
+  </si>
+  <si>
+    <t>[329. 300. 330. 322. 327. 302.]</t>
+  </si>
+  <si>
+    <t>[330. 322. 326. 304. 319. 318.]</t>
+  </si>
+  <si>
+    <t>[313. 333. 310. 305. 300. 301.]</t>
+  </si>
+  <si>
+    <t>[344. 318. 342. 307. 326. 304.]</t>
+  </si>
+  <si>
+    <t>[346. 329. 323. 309. 344. 310.]</t>
+  </si>
+  <si>
+    <t>[310. 319. 321. 313. 318. 306.]</t>
+  </si>
+  <si>
+    <t>[326. 344. 304. 317. 318. 306.]</t>
+  </si>
+  <si>
+    <t>[301. 319. 326. 320. 312. 307.]</t>
+  </si>
+  <si>
+    <t>[340. 305. 326. 314. 332. 333.]</t>
+  </si>
+  <si>
+    <t>[322. 306. 333. 328. 304. 308.]</t>
+  </si>
+  <si>
+    <t>[319. 342. 304. 329. 324. 309.]</t>
+  </si>
+  <si>
+    <t>[332. 314. 321. 301. 313. 302.]</t>
+  </si>
+  <si>
+    <t>[342. 327. 304. 313. 323. 315.]</t>
+  </si>
+  <si>
+    <t>[346. 301. 340. 322. 306. 342.]</t>
+  </si>
+  <si>
+    <t>[326. 331. 321. 327. 346. 344.]</t>
+  </si>
+  <si>
+    <t>[327. 302. 340. 346. 319. 315.]</t>
+  </si>
+  <si>
+    <t>[313. 346. 304. 322. 330. 326.]</t>
+  </si>
+  <si>
+    <t>[329. 327. 315. 307. 312. 332.]</t>
+  </si>
+  <si>
+    <t>[332. 305. 328. 346. 348. 300.]</t>
+  </si>
+  <si>
+    <t>[322. 342. 314. 318. 313. 328.]</t>
+  </si>
+  <si>
+    <t>[324. 320. 335. 315. 309. 330.]</t>
+  </si>
+  <si>
+    <t>[300. 314. 307. 320. 302. 319.]</t>
+  </si>
+  <si>
+    <t>[300. 319. 326. 348. 305. 328.]</t>
+  </si>
+  <si>
+    <t>[314. 323. 329. 321. 342. 302.]</t>
+  </si>
+  <si>
+    <t>[301. 306. 348. 333. 329. 324.]</t>
+  </si>
+  <si>
+    <t>[310. 318. 319. 304. 300. 313.]</t>
+  </si>
+  <si>
+    <t>[326. 329. 304. 320. 327. 328.]</t>
+  </si>
+  <si>
+    <t>[319. 317. 346. 312. 324. 321.]</t>
+  </si>
+  <si>
+    <t>[312. 310. 322. 319. 333. 309.]</t>
+  </si>
+  <si>
+    <t>[328. 309. 342. 344. 322. 324.]</t>
+  </si>
+  <si>
+    <t>[313. 318. 323. 348. 309. 324.]</t>
+  </si>
+  <si>
+    <t>[308. 326. 328. 315. 346. 324.]</t>
+  </si>
+  <si>
+    <t>[305. 307. 312. 323. 302. 340.]</t>
+  </si>
+  <si>
+    <t>[308. 300. 326. 346. 328. 312.]</t>
+  </si>
+  <si>
+    <t>[346. 317. 342. 312. 329. 320.]</t>
+  </si>
+  <si>
+    <t>[342. 304. 312. 319. 317. 301.]</t>
+  </si>
+  <si>
+    <t>[340. 314. 315. 305. 335. 330.]</t>
+  </si>
+  <si>
+    <t>[309. 342. 327. 300. 333. 323.]</t>
+  </si>
+  <si>
+    <t>[301. 304. 309. 300. 306. 332.]</t>
+  </si>
+  <si>
+    <t>[329. 330. 344. 320. 327. 313.]</t>
+  </si>
+  <si>
+    <t>[318. 304. 328. 300. 301. 312.]</t>
+  </si>
+  <si>
+    <t>[330. 348. 315. 312. 327. 332.]</t>
+  </si>
+  <si>
+    <t>[335. 306. 302. 346. 307. 300.]</t>
+  </si>
+  <si>
+    <t>[0.844780445098877, 0.8968955874443054, 0.9091201424598694, 0.914428174495697, 0.9231140613555908, 0.9252051115036011, 0.9337300658226013, 0.9369471073150635, 0.9400032162666321, 0.9425768256187439, 0.9494933485984802, 0.9523885846138, 0.9578574895858765, 0.9554447531700134, 0.9593051075935364, 0.9630046486854553, 0.9607527852058411, 0.9610744714736938, 0.9628438353538513, 0.9673476219177246, 0.970725417137146, 0.9744249582290649, 0.9710471034049988, 0.9734598398208618, 0.9716905355453491, 0.9744249582290649, 0.979089617729187, 0.9802155494689941, 0.9755508899688721, 0.9789287447929382, 0.9784461855888367]</t>
+  </si>
+  <si>
+    <t>[0.8315998911857605, 0.8846741914749146, 0.900428295135498, 0.9077699780464172, 0.9183236360549927, 0.918170690536499, 0.9233710765838623, 0.9233710765838623, 0.9345365762710571, 0.9363719820976257, 0.934230625629425, 0.9421841502189636, 0.9496787786483765, 0.9505965113639832, 0.9553380012512207, 0.9472315907478333, 0.9545732736587524, 0.958091139793396, 0.9619149565696716, 0.9608442783355713, 0.9652798771858215, 0.960079550743103, 0.9701743721961975]</t>
+  </si>
+  <si>
+    <t>[0.8506156802177429, 0.9010045528411865, 0.9092676639556885, 0.922067403793335, 0.9227154850959778, 0.9322748184204102, 0.9338949918746948, 0.9360013008117676, 0.9439404010772705, 0.9531756043434143, 0.954957902431488, 0.9565780758857727, 0.9559299945831299, 0.958846390247345, 0.963545024394989, 0.965003252029419, 0.9656513333320618, 0.9685677289962769, 0.9734283685684204, 0.9745625257492065, 0.9716461300849915, 0.9729422926902771, 0.9747245907783508, 0.9695398807525635, 0.9748865962028503, 0.9787750840187073, 0.9786130785942078]</t>
+  </si>
+  <si>
+    <t>[0.8539553880691528, 0.8973318934440613, 0.9101263880729675, 0.9176158308982849, 0.9224528074264526, 0.92416912317276, 0.9321267008781433, 0.9397721886634827, 0.9438289999961853, 0.9480417966842651, 0.9492900371551514, 0.9520986080169678, 0.9569355845451355, 0.953658938407898, 0.960212230682373, 0.959119975566864, 0.9627087116241455, 0.9677016735076904, 0.9655172228813171, 0.9666094779968262, 0.9751911163330078, 0.9670775532722473, 0.9750351309776306, 0.9726946353912354, 0.9762833714485168, 0.9758152365684509, 0.9789358973503113, 0.9761273264884949, 0.9745669960975647]</t>
+  </si>
+  <si>
+    <t>[0.8126145601272583, 0.88042151927948, 0.9013439416885376, 0.9102016091346741, 0.9118815064430237, 0.916157603263855, 0.9207391738891602, 0.9308185577392578, 0.9318876266479492, 0.9402871131896973, 0.9447159171104431, 0.944410502910614, 0.9486865997314453, 0.9515882730484009, 0.9531154632568359, 0.9526572823524475, 0.9599877595901489, 0.963042140007019, 0.9612095355987549]</t>
+  </si>
+  <si>
+    <t>[0.8371591567993164, 0.8875365853309631, 0.9021722674369812, 0.9112617373466492, 0.9175781607627869, 0.9191187620162964, 0.9279001951217651, 0.9342166185379028, 0.9411492943763733, 0.9403789639472961, 0.9450007677078247, 0.9517793655395508, 0.9542443156242371, 0.95054692029953, 0.9530118703842163, 0.9605607986450195]</t>
+  </si>
+  <si>
+    <t>[0.8319589495658875, 0.8833048343658447, 0.896063506603241, 0.9033764004707336, 0.9173797965049744, 0.9195581078529358, 0.9299829006195068, 0.932316780090332, 0.9304496645927429, 0.9379181861877441, 0.9438307285308838, 0.9432083368301392, 0.9466313719749451, 0.9584565162658691, 0.9581453204154968, 0.9611015915870667, 0.9640578627586365, 0.9682589173316956, 0.9665473699569702, 0.9663918018341064, 0.9676365256309509, 0.969036877155304]</t>
+  </si>
+  <si>
+    <t>[0.8286643028259277, 0.8916576504707336, 0.9026466608047485, 0.9147191047668457, 0.9195170998573303, 0.9271010756492615, 0.928803563117981, 0.9351493716239929, 0.9408760070800781, 0.938399612903595, 0.944126307964325, 0.949233889579773, 0.9506268501281738, 0.9548057317733765, 0.9541866779327393, 0.9558891654014587, 0.9642470479011536, 0.9668781757354736, 0.9657947421073914, 0.9668781757354736, 0.9673424959182739, 0.9702832102775574, 0.9713666439056396, 0.9661043286323547, 0.9726048707962036, 0.9688902497291565, 0.9747716784477234, 0.9777124524116516, 0.9787958264350891, 0.976319432258606, 0.981427013874054, 0.981427013874054, 0.9746169447898865, 0.981427013874054, 0.9822009205818176, 0.9820461273193359, 0.9775576591491699, 0.9815818071365356]</t>
+  </si>
+  <si>
+    <t>[0.8260477781295776, 0.8856842517852783, 0.8977016806602478, 0.8964999318122864, 0.9092684388160706, 0.9064143300056458, 0.9082168936729431, 0.9152771234512329, 0.921436071395874, 0.9187321662902832, 0.9287967681884766, 0.9283460974693298, 0.9200841188430786, 0.929998517036438, 0.9358569979667664, 0.9385609030723572, 0.9372089505195618, 0.94096440076828, 0.9480246305465698, 0.9495267868041992, 0.9549346566200256, 0.9588403105735779, 0.956436812877655, 0.9594411849975586, 0.9577887654304504]</t>
+  </si>
+  <si>
+    <t>[0.8248718976974487, 0.883558452129364, 0.8998602628707886, 0.9099518656730652, 0.91057288646698, 0.9242353439331055, 0.9236143231391907, 0.928272008895874, 0.9287377595901489, 0.9315323829650879, 0.9358795285224915, 0.9434870481491089, 0.9512497782707214, 0.9526470899581909, 0.9548206925392151, 0.9518707990646362, 0.9517155885696411, 0.9611861705780029, 0.961341381072998, 0.9639807343482971, 0.9642912745475769, 0.9666200876235962]</t>
+  </si>
+  <si>
+    <t>[0.8309602737426758, 0.8870860934257507, 0.9044702053070068, 0.9150662422180176, 0.9216887354850769, 0.9218543171882629, 0.9263244867324829, 0.9380794763565063, 0.938907265663147, 0.9442052841186523, 0.9460265040397644, 0.9496688842773438, 0.9523178935050964, 0.9559602737426758, 0.9589403867721558, 0.9607616066932678, 0.9582781195640564, 0.9632450342178345]</t>
+  </si>
+  <si>
+    <t>[0.8174698948860168, 0.8816264867782593, 0.896234929561615, 0.9048192501068115, 0.9164156913757324, 0.9216867685317993, 0.921837329864502, 0.9286144375801086, 0.9334337115287781, 0.93719881772995, 0.9373493790626526, 0.9471385478973389, 0.9484939575195312, 0.9498494267463684, 0.9537650346755981, 0.95753014087677, 0.9584337472915649, 0.9606927633285522, 0.9582831263542175, 0.9591867327690125, 0.9578313231468201, 0.9653614163398743, 0.9676204919815063, 0.9691265225410461, 0.9691265225410461, 0.9703313112258911, 0.971234917640686, 0.9727409482002258, 0.9740963578224182, 0.975602388381958, 0.9721385836601257, 0.9724397659301758]</t>
+  </si>
+  <si>
+    <t>[0.8390198349952698, 0.8819789290428162, 0.8967121839523315, 0.905086874961853, 0.9120657444000244, 0.915167510509491, 0.9210608005523682, 0.9263337254524231, 0.930831253528595, 0.9367245435714722, 0.9440136551856995, 0.9483560919761658, 0.9461848735809326, 0.9537841081619263, 0.9505273103713989, 0.9547146558761597, 0.9578163623809814, 0.9624689817428589, 0.96277916431427, 0.9663461446762085, 0.969913125038147, 0.9705334901809692, 0.9678969979286194, 0.9686724543571472, 0.9685173630714417, 0.9719292521476746, 0.9733250737190247, 0.9770471453666687, 0.9753412008285522, 0.9772022366523743, 0.9756513833999634, 0.9745657444000244, 0.9761165976524353]</t>
+  </si>
+  <si>
+    <t>[0.8365970849990845, 0.8836275935173035, 0.8937399387359619, 0.9091492891311646, 0.9115569591522217, 0.914446234703064, 0.9215088486671448, 0.9290529489517212, 0.9362760782241821, 0.934831440448761, 0.938683807849884, 0.9452648758888245, 0.9470304846763611, 0.9497592449188232, 0.9495987296104431, 0.9550561904907227, 0.9563403129577637, 0.9560192823410034, 0.9627608060836792, 0.96372389793396, 0.9632423520088196, 0.9667736887931824, 0.9680578112602234, 0.9709470272064209, 0.9752808809280396]</t>
+  </si>
+  <si>
+    <t>[0.8426982760429382, 0.889815628528595, 0.9015218019485474, 0.9108867645263672, 0.9160081744194031, 0.9195200204849243, 0.9266901016235352, 0.9274216890335083, 0.9332748055458069, 0.9379572868347168, 0.942200779914856, 0.9448346495628357, 0.9445419907569885, 0.949370801448822, 0.9527363181114197, 0.9561018347740173, 0.9591746926307678, 0.957272469997406, 0.9609306454658508, 0.9632718563079834]</t>
+  </si>
+  <si>
+    <t>[0.8433734774589539, 0.8956366181373596, 0.9052425622940063, 0.920872688293457, 0.921523928642273, 0.9340605735778809, 0.9337349534034729, 0.9384565353393555, 0.9448062777519226, 0.9439921975135803, 0.9456202983856201, 0.9531097412109375, 0.955389142036438, 0.9596222639083862, 0.9620644450187683, 0.9622272849082947, 0.965809166431427]</t>
+  </si>
+  <si>
+    <t>[0.8276395201683044, 0.8917916417121887, 0.9049311876296997, 0.9125058054924011, 0.9182254076004028, 0.9239449501037598, 0.9293553829193115, 0.9329107999801636, 0.936620831489563, 0.9431133270263672, 0.9452774524688721, 0.9491420388221741, 0.9508424997329712, 0.9526974558830261, 0.9621270895004272, 0.9650641679763794, 0.9618179202079773, 0.964909553527832, 0.9650641679763794, 0.96104496717453]</t>
+  </si>
+  <si>
+    <t>[0.8199707269668579, 0.878028929233551, 0.8951048851013184, 0.9097414016723633, 0.915433406829834, 0.9201496243476868, 0.9279557466506958, 0.9325093626976013, 0.9336477518081665, 0.9333224892616272, 0.9422670602798462, 0.9447064399719238, 0.9427549242973328, 0.9468206167221069, 0.9554399251937866, 0.9575541019439697, 0.9503984451293945, 0.9593429565429688, 0.9596682190895081, 0.9630834460258484, 0.965522825717926, 0.9651976227760315, 0.9663360118865967, 0.9738168716430664, 0.9775573015213013]</t>
+  </si>
+  <si>
+    <t>[0.8193726539611816, 0.8793519735336304, 0.8940020799636841, 0.9007238745689392, 0.9081351161003113, 0.9234746694564819, 0.9186487197875977, 0.9270941019058228, 0.9315752983093262, 0.9389865398406982, 0.9395036101341248, 0.9427783489227295, 0.9477766156196594, 0.9505342841148376, 0.9527748823165894, 0.956739068031311, 0.9579455256462097, 0.9588072896003723, 0.956739068031311, 0.9603585004806519, 0.9658738374710083, 0.9632885456085205, 0.9708721041679382, 0.9720786213874817, 0.9694932699203491, 0.969148576259613, 0.9791451096534729, 0.9724233150482178]</t>
+  </si>
+  <si>
+    <t>[0.8485864996910095, 0.8971410393714905, 0.9041686654090881, 0.9158281683921814, 0.9209391474723816, 0.928925096988678, 0.9348347187042236, 0.9357929825782776, 0.9354735612869263, 0.943778932094574, 0.950007975101471, 0.951445460319519, 0.9565564393997192, 0.9547995328903198, 0.9608688950538635, 0.9589522480964661, 0.9661396145820618]</t>
+  </si>
+  <si>
+    <t>[0.8284409642219543, 0.8798108100891113, 0.8962817788124084, 0.9018265008926392, 0.914709746837616, 0.9160143733024597, 0.9220482707023621, 0.9352576732635498, 0.9287344813346863, 0.9406392574310303, 0.9399869441986084, 0.9412915706634521, 0.9453685879707336, 0.9504240155220032, 0.9468362927436829, 0.9548271298408508, 0.9575994610786438, 0.9598825573921204, 0.959067165851593, 0.9616764783859253, 0.965753436088562, 0.9668949842453003, 0.9642857313156128, 0.968199610710144, 0.971298098564148, 0.9724396467208862, 0.9688519239425659, 0.9698303937911987, 0.9698303937911987, 0.9743965864181519, 0.9735811948776245, 0.9743965864181519, 0.9757012128829956, 0.9740704298019409, 0.980104386806488, 0.976190447807312]</t>
+  </si>
+  <si>
+    <t>[0.8412287831306458, 0.8955537676811218, 0.9122069478034973, 0.9188358783721924, 0.93047696352005, 0.9329021573066711, 0.9354890584945679, 0.9417946934700012, 0.9429264068603516, 0.9485852718353271, 0.9511721730232239, 0.9542441368103027, 0.9616814851760864, 0.9594179391860962, 0.9641067385673523, 0.9665319323539734, 0.9665319323539734]</t>
+  </si>
+  <si>
+    <t>[0.8377784490585327, 0.8893944025039673, 0.9028867483139038, 0.9091622233390808, 0.9187323451042175, 0.9240665435791016, 0.92689049243927, 0.9330090880393982, 0.9367743730545044, 0.9414809942245483, 0.9465014338493347, 0.9325384497642517, 0.9508942365646362, 0.9512080550193787, 0.9554439783096313, 0.9573266506195068, 0.9565421938896179, 0.9592092633247375, 0.961876392364502, 0.9676812291145325, 0.965798556804657, 0.965798556804657, 0.9645434617996216, 0.9701914191246033, 0.9692500829696655, 0.9725447297096252]</t>
+  </si>
+  <si>
+    <t>[0.8237037062644958, 0.8762139678001404, 0.8984361886978149, 0.9010699391365051, 0.9099588394165039, 0.9173662662506104, 0.9287242889404297, 0.9292181134223938, 0.9372839331626892, 0.9386008381843567, 0.9409053325653076, 0.9441975355148315, 0.9483127593994141, 0.9534156322479248, 0.9562140107154846, 0.9623045325279236, 0.9599999785423279, 0.9613168835639954, 0.9651028513908386, 0.967572033405304, 0.9746502041816711, 0.9680658578872681, 0.9657613039016724, 0.9733333587646484]</t>
+  </si>
+  <si>
+    <t>[0.8420301079750061, 0.8959555625915527, 0.9103885889053345, 0.9132434725761414, 0.9214909076690674, 0.9235527515411377, 0.9226011037826538, 0.9264076352119446, 0.933862030506134, 0.9292625188827515, 0.9402061700820923, 0.935765266418457, 0.9427438378334045, 0.9449642896652222, 0.9487708210945129, 0.9533703327178955, 0.9492466449737549, 0.9590801000595093, 0.9505154490470886]</t>
+  </si>
+  <si>
+    <t>[0.8419359922409058, 0.8872721791267395, 0.9022821187973022, 0.910859227180481, 0.917138934135437, 0.910706102848053, 0.9188237190246582, 0.9258692264556885, 0.9220401048660278, 0.9316893815994263, 0.9266350269317627, 0.9243375658988953, 0.9376627206802368, 0.9298514127731323, 0.9405728578567505, 0.9399601817131042, 0.9494562745094299, 0.9353653192520142, 0.9430234432220459, 0.9477714896202087, 0.9468525052070618, 0.9523663520812988, 0.9505283832550049]</t>
+  </si>
+  <si>
+    <t>[0.8285850882530212, 0.8798344731330872, 0.8984561562538147, 0.9053000211715698, 0.912143886089325, 0.9201018810272217, 0.923603355884552, 0.9269457459449768, 0.9339487552642822, 0.9361770153045654, 0.9372910857200623, 0.9454082250595093, 0.9399968385696411, 0.9458857178688049, 0.9498646855354309, 0.9516154527664185, 0.9547986388206482, 0.9613242149353027, 0.9635524153709412, 0.956708550453186, 0.9654623866081238, 0.9660990238189697, 0.9708737730979919, 0.9681680798530579, 0.9700779914855957, 0.9737386703491211, 0.9657806754112244]</t>
+  </si>
+  <si>
+    <t>[0.8368495106697083, 0.8915455341339111, 0.9052976965904236, 0.9107673168182373, 0.9171745777130127, 0.9276449680328369, 0.9309266805648804, 0.9315518140792847, 0.940615713596344, 0.9412408471107483, 0.9440537691116333, 0.9424909949302673, 0.9503047466278076, 0.9538990259170532, 0.9537427425384521, 0.9540553092956543, 0.9601500034332275, 0.9629629850387573, 0.9648382663726807, 0.9668698310852051, 0.9693701863288879, 0.966713547706604, 0.9674949049949646, 0.9601500034332275, 0.9703078866004944, 0.9718706011772156, 0.9735895991325378, 0.9751523733139038, 0.9757774472236633, 0.9759337306022644, 0.9814033508300781, 0.9765588641166687]</t>
+  </si>
+  <si>
+    <t>[0.8445103168487549, 0.8912975788116455, 0.9017467498779297, 0.9092326760292053, 0.9185901284217834, 0.928727388381958, 0.9352775812149048, 0.9344978332519531, 0.9376169443130493, 0.9458827376365662, 0.946818470954895, 0.9463505744934082, 0.9524329304695129, 0.9514971971511841, 0.9550842046737671, 0.9591391086578369, 0.9622582793235779]</t>
+  </si>
+  <si>
+    <t>[0.8243690133094788, 0.8844651579856873, 0.8981370329856873, 0.9070011973381042, 0.9143629670143127, 0.9181190133094788, 0.9202223420143127, 0.9283353090286255, 0.9323918223381042, 0.9334434866905212, 0.9367488026618958, 0.9430589079856873, 0.9475660920143127, 0.944411039352417, 0.9538761973381042, 0.9573317170143127, 0.9547776579856873, 0.9573317170143127, 0.9597355723381042, 0.9610877633094788, 0.960036039352417]</t>
+  </si>
+  <si>
+    <t>[0.8427976965904236, 0.8894254565238953, 0.90424644947052, 0.9120732545852661, 0.9175686836242676, 0.9283930063247681, 0.9283930063247681, 0.9337218999862671, 0.9373854994773865, 0.9430474638938904, 0.945378839969635, 0.9468775987625122, 0.9573688507080078, 0.9553705453872681, 0.9548709392547607, 0.9580349922180176, 0.9572023153305054, 0.9605329036712646, 0.9638634324073792, 0.9695253968238831, 0.9688592553138733, 0.9716902375221252, 0.9735220670700073]</t>
+  </si>
+  <si>
+    <t>[0.8233786821365356, 0.8779823780059814, 0.8927141427993774, 0.8983186483383179, 0.9072858095169067, 0.9159327745437622, 0.9117693901062012, 0.918014407157898, 0.9314651489257812, 0.9359487295150757, 0.9343474507331848, 0.9341873526573181, 0.9447557926177979, 0.9487590193748474, 0.9492393732070923, 0.9466773271560669, 0.952441930770874, 0.9585268497467041, 0.9580464363098145, 0.9642914533615112, 0.952441930770874, 0.9658927321434021, 0.9684547781944275, 0.9718174338340759, 0.9657325744628906, 0.9654123187065125, 0.9743794798851013, 0.9790232181549072, 0.9745396375656128, 0.9724579453468323, 0.9718174338340759, 0.978702962398529, 0.9718174338340759, 0.9766212701797485, 0.9750199913978577, 0.9782225489616394, 0.9790232181549072, 0.9745396375656128, 0.9772617816925049, 0.9803042411804199, 0.978702962398529, 0.9830264449119568, 0.9863891005516052, 0.9835067987442017, 0.9846277236938477, 0.9812650084495544, 0.9814251661300659, 0.9846277236938477, 0.9859087467193604, 0.987189769744873, 0.9835067987442017, 0.9815852642059326, 0.9812650084495544, 0.982225775718689, 0.9851080775260925]</t>
+  </si>
+  <si>
+    <t>[0.8394590020179749, 0.9001764059066772, 0.9047338962554932, 0.922522783279419, 0.922816812992096, 0.9326668381690979, 0.9351661205291748, 0.9410467743873596, 0.9433990120887756, 0.9456042051315308, 0.9508967995643616, 0.9554542899131775, 0.9544251561164856, 0.9605998396873474, 0.9635401368141174, 0.9582476019859314, 0.9688326716423035, 0.9720670580863953, 0.9632461071014404, 0.9732431769371033, 0.9708909392356873]</t>
+  </si>
+  <si>
+    <t>[0.8313711881637573, 0.8812326788902283, 0.8936980366706848, 0.9058171510696411, 0.9104917049407959, 0.9137811660766602, 0.9236496090888977, 0.9319598078727722, 0.9321329593658447, 0.939577579498291, 0.9440789222717285, 0.9468490481376648, 0.9428670406341553, 0.9534279704093933, 0.9558517932891846, 0.9549861550331116, 0.9665858745574951, 0.9605262875556946]</t>
+  </si>
+  <si>
+    <t>[0.8174082040786743, 0.8807106614112854, 0.9007166028022766, 0.899820864200592, 0.9153478741645813, 0.9220662713050842, 0.9249029755592346, 0.9322185516357422, 0.9365482330322266, 0.9428187608718872, 0.9498357772827148, 0.9431173205375671, 0.9464018940925598, 0.9502836465835571, 0.9555091261863708, 0.9581964612007141, 0.9604359269142151, 0.9610331654548645, 0.9601373672485352, 0.9632726311683655, 0.9659599661827087]</t>
+  </si>
+  <si>
+    <t>[0.8316799998283386, 0.8993600010871887, 0.9068800210952759, 0.9068800210952759, 0.920960009098053, 0.925279974937439, 0.9297599792480469, 0.9336000084877014, 0.9423999786376953, 0.9359999895095825, 0.9428799748420715, 0.9527999758720398, 0.95551997423172, 0.9572799801826477, 0.9592000246047974, 0.9625599980354309, 0.9592000246047974, 0.9670400023460388, 0.9670400023460388, 0.9635199904441833, 0.9665600061416626, 0.9758399724960327, 0.9728000164031982, 0.9718400239944458]</t>
+  </si>
+  <si>
+    <t>[0.8378468751907349, 0.8965228796005249, 0.8975259065628052, 0.9092276692390442, 0.920595109462738, 0.9222667813301086, 0.9279505014419556, 0.9314610362052917, 0.9408224821090698, 0.9398194551467896, 0.9476763606071472, 0.9511868953704834, 0.9515212178230286, 0.9541959166526794, 0.9533600807189941, 0.9602139592170715, 0.9565362930297852, 0.9608826637268066, 0.964560329914093]</t>
+  </si>
+  <si>
+    <t>[0.8313498497009277, 0.8953961730003357, 0.9046351313591003, 0.9182586669921875, 0.9191982746124268, 0.9300031065940857, 0.9392420649528503, 0.9372063875198364, 0.9409646391868591, 0.9442530274391174, 0.9508299231529236, 0.9547447562217712, 0.9574068188667297, 0.9608518481254578, 0.9630441665649414, 0.9649232625961304, 0.9633573293685913, 0.9650798439979553]</t>
+  </si>
+  <si>
+    <t>[0.8359755277633667, 0.8869879245758057, 0.9040966629981995, 0.9050384759902954, 0.9216763377189636, 0.9229320287704468, 0.926071286201477, 0.9381572604179382, 0.9367446303367615, 0.9282687306404114, 0.9331344962120056, 0.9419243335723877, 0.9497724175453186, 0.9504002332687378, 0.9497724175453186, 0.9596609473228455, 0.9543243050575256, 0.9634280204772949, 0.9664102792739868, 0.9657824635505676, 0.9704912900924683, 0.9664102792739868, 0.9551090598106384, 0.9649976491928101]</t>
+  </si>
+  <si>
+    <t>[0.8362459540367126, 0.901294469833374, 0.9064725041389465, 0.9095469117164612, 0.9300971031188965, 0.9297734498977661, 0.9312297701835632, 0.935760498046875, 0.9441747665405273, 0.9462783336639404, 0.9483819007873535, 0.9545307159423828, 0.9585760235786438, 0.9616504907608032, 0.9590615034103394, 0.9611650705337524, 0.9606795907020569, 0.96278315782547]</t>
+  </si>
+  <si>
+    <t>[0.8325330018997192, 0.8886554837226868, 0.8933073282241821, 0.9081632494926453, 0.9137154817581177, 0.9212185144424438, 0.9279711842536926, 0.9314225912094116, 0.9342737197875977, 0.9363745450973511, 0.9435774087905884, 0.9435774087905884, 0.9464285969734192, 0.9491296410560608, 0.9567826986312866, 0.9564825892448425]</t>
+  </si>
+  <si>
+    <t>[0.8501232266426086, 0.8995686769485474, 0.9151263236999512, 0.9235982894897461, 0.928373396396637, 0.9279112815856934, 0.9366912841796875, 0.9428527355194092, 0.9467036128044128, 0.9430067539215088, 0.9534811973571777, 0.9517868161201477, 0.9504004716873169, 0.9579482674598694, 0.9638016223907471, 0.9648798704147339, 0.9622612595558167, 0.9661121368408203, 0.9707332253456116, 0.9671903848648071, 0.972273588180542, 0.9696549773216248, 0.9724276065826416]</t>
+  </si>
+  <si>
+    <t>[0.8451047539710999, 0.8928397297859192, 0.9068030714988708, 0.9128105044364929, 0.9210910797119141, 0.9264491200447083, 0.9332683682441711, 0.9358662366867065, 0.9407371282577515, 0.945445716381073, 0.9430102109909058, 0.9542133212089539, 0.954375684261322, 0.9577853679656982, 0.9574606418609619, 0.9642798900604248, 0.959571361541748, 0.9654164910316467, 0.9631433486938477]</t>
+  </si>
+  <si>
+    <t>[0.82984459400177, 0.8967649936676025, 0.8983507752418518, 0.9069140553474426, 0.9205518364906311, 0.9218204617500305, 0.931018054485321, 0.9283222556114197, 0.9333967566490173, 0.9365683197975159, 0.9489375352859497, 0.9503647089004517, 0.9481446146965027, 0.9446558952331543, 0.9511576294898987, 0.9470345973968506, 0.9579765200614929, 0.9581351280212402, 0.9644782543182373, 0.962892472743988, 0.9624167680740356, 0.9668569564819336]</t>
+  </si>
+  <si>
+    <t>[0.8462637066841125, 0.8881484866142273, 0.9013168215751648, 0.9090909361839294, 0.9124226570129395, 0.9203553795814514, 0.9274948239326477, 0.9346343278884888, 0.9325717687606812, 0.9363794922828674, 0.9452641606330872, 0.9466920495033264, 0.9495478272438049, 0.9525622725486755, 0.9541488289833069, 0.9574805498123169, 0.9601777195930481, 0.9646199941635132, 0.9682690501213074, 0.9628748297691345, 0.9727113842964172, 0.9731873869895935, 0.9738219976425171, 0.9701729416847229, 0.9738219976425171, 0.9730287194252014, 0.9733460545539856, 0.9757258296012878, 0.978264331817627, 0.978264331817627, 0.979374885559082, 0.9803268313407898, 0.9792162179946899, 0.9795335531234741]</t>
+  </si>
+  <si>
+    <t>[0.8235198855400085, 0.8794888257980347, 0.8951795697212219, 0.9069880247116089, 0.9170171618461609, 0.9186347723007202, 0.9249433875083923, 0.9293109178543091, 0.9323843121528625, 0.9383694529533386, 0.9398252964019775, 0.939987063407898, 0.9417664408683777, 0.9496926665306091, 0.9524425864219666, 0.9548689723014832, 0.9597217440605164, 0.9550307393074036, 0.9587512016296387]</t>
+  </si>
+  <si>
+    <t>[0.835844099521637, 0.8959465622901917, 0.9063519239425659, 0.9119428396224976, 0.9200186133384705, 0.9212610721588135, 0.9257648587226868, 0.9299580454826355, 0.9414505362510681, 0.9445565938949585, 0.9447119235992432, 0.9527876973152161, 0.9444013237953186, 0.946264922618866, 0.9576020836830139, 0.9583786129951477, 0.9563596844673157, 0.9580680131912231, 0.9625717997550964, 0.9622611999511719, 0.9588445425033569, 0.9645907878875732, 0.9709582328796387]</t>
+  </si>
+  <si>
+    <t>[0.8424950838088989, 0.9000987410545349, 0.9163923859596252, 0.9213297963142395, 0.931533932685852, 0.9316985011100769, 0.9366359710693359, 0.9415733814239502, 0.9451941847801208, 0.9504608511924744, 0.9526004195213318, 0.9572086930274963, 0.9639565348625183, 0.960006594657898, 0.9672482013702393, 0.9619815945625305]</t>
+  </si>
+  <si>
+    <t>[0.8244403004646301, 0.8897492289543152, 0.89564049243927, 0.9128093123435974, 0.9153341054916382, 0.9171856641769409, 0.9247601628303528, 0.9259383678436279, 0.9360377192497253, 0.9392358064651489, 0.9355327486991882, 0.9447904229164124, 0.9439488053321838, 0.9518599510192871, 0.9537115097045898, 0.9552264213562012, 0.9555630087852478, 0.9599394202232361]</t>
+  </si>
+  <si>
+    <t>[0.8529046177864075, 0.8988816142082214, 0.9064927101135254, 0.9158123731613159, 0.9238893985748291, 0.931655764579773, 0.9333643913269043, 0.9411307573318481, 0.9408201575279236, 0.9431500434875488, 0.954023003578186, 0.956508219242096, 0.953557014465332, 0.9568188786506653, 0.9619446992874146, 0.9605467319488525]</t>
+  </si>
+  <si>
+    <t>[0.8152624368667603, 0.8872582912445068, 0.9019337296485901, 0.907113254070282, 0.9221339821815491, 0.9233425259590149, 0.9302486181259155, 0.9338743090629578, 0.938363254070282, 0.9402624368667603, 0.9469958543777466, 0.9516574740409851, 0.9533839821815491, 0.9564917087554932, 0.9595994353294373, 0.955973744392395]</t>
+  </si>
+  <si>
+    <t>[0.8488805890083313, 0.8961442708969116, 0.9129353165626526, 0.9208644032478333, 0.9200870394706726, 0.926616907119751, 0.9342350959777832, 0.9406094551086426, 0.9452736377716064, 0.9451181888580322, 0.9511815905570984, 0.9493159055709839, 0.954291045665741, 0.9560012221336365, 0.959266185760498, 0.9670398235321045, 0.9645522236824036, 0.9662624597549438, 0.9703047275543213, 0.9679726362228394, 0.9718594551086426, 0.9734141826629639, 0.9757462739944458, 0.9777674078941345, 0.9734141826629639, 0.9755908250808716, 0.9776119589805603]</t>
+  </si>
+  <si>
+    <t>[0.8353915810585022, 0.8977409601211548, 0.9031626582145691, 0.9125000238418579, 0.9210843443870544, 0.9289156794548035, 0.9305722713470459, 0.9323795437812805, 0.9376506209373474, 0.9432228803634644, 0.9450300931930542, 0.9492470026016235, 0.9513553977012634, 0.9504517912864685, 0.9573795199394226, 0.9596385359764099, 0.9596385359764099, 0.961897611618042, 0.9649096131324768, 0.9728915691375732, 0.9682229161262512, 0.9656626582145691, 0.9682229161262512]</t>
+  </si>
+  <si>
+    <t>[0.8430586457252502, 0.891462504863739, 0.898440957069397, 0.9066072702407837, 0.9177431464195251, 0.9239792227745056, 0.9250185489654541, 0.9331848621368408, 0.9314031004905701, 0.9361544251441956, 0.9401633143424988, 0.9456570148468018, 0.9480326771736145, 0.9563474655151367, 0.9504083395004272, 0.9602078795433044, 0.9631774425506592, 0.9621380567550659, 0.9651076197624207, 0.9645137190818787, 0.9630289673805237, 0.9711952209472656, 0.9664439558982849]</t>
+  </si>
+  <si>
+    <t>[0.8543875217437744, 0.892667829990387, 0.9044464230537415, 0.9104829430580139, 0.9210836291313171, 0.9166666865348816, 0.9271201491355896, 0.9277090430259705, 0.9302120208740234, 0.938015341758728, 0.9402238130569458, 0.9406654834747314, 0.9474381804466248, 0.9477326273918152, 0.9489104747772217, 0.9540635943412781, 0.9617196917533875, 0.9639281630516052, 0.9639281630516052, 0.9636337161064148]</t>
+  </si>
+  <si>
+    <t>[0.8483723998069763, 0.9023444056510925, 0.9141507744789124, 0.9232585430145264, 0.9289931058883667, 0.9354022741317749, 0.9399561285972595, 0.9424861073493958, 0.9490638971328735, 0.951256513595581, 0.9544610977172852, 0.9495698809623718, 0.9627255797386169, 0.9622195959091187, 0.966773509979248, 0.9676167964935303, 0.9639062285423279, 0.97065269947052, 0.9723393321037292, 0.971833348274231, 0.9750379323959351, 0.9765558838844299, 0.976218581199646, 0.9753752946853638, 0.9773992300033569, 0.9790858626365662, 0.9787485003471375]</t>
+  </si>
+  <si>
+    <t>[0.8430018424987793, 0.8974831104278564, 0.9053100347518921, 0.9109883308410645, 0.9277163743972778, 0.9274094700813293, 0.9326273798942566, 0.9387661218643188, 0.9410681128501892, 0.9409146904945374, 0.9481276869773865, 0.9515039920806885, 0.9545733332633972, 0.9579496383666992, 0.9627071619033813, 0.9630141258239746, 0.9657765626907349, 0.9689993858337402, 0.9716083407402039, 0.9716083407402039, 0.9726826548576355, 0.9732965230941772, 0.9748311638832092]</t>
+  </si>
+  <si>
+    <t>[0.8071005940437317, 0.881994903087616, 0.896872341632843, 0.9087066650390625, 0.9144547581672668, 0.920371949672699, 0.9244294166564941, 0.9289940595626831, 0.9381234049797058, 0.9364327788352966, 0.942011833190918, 0.9437024593353271, 0.9455621242523193, 0.9504649043083191, 0.954860508441925, 0.9531698822975159, 0.9519864916801453, 0.9567201733589172]</t>
+  </si>
+  <si>
+    <t>[0.8133845925331116, 0.8829230666160583, 0.8921538591384888, 0.9021538496017456, 0.9078461527824402, 0.911230742931366, 0.9224615097045898, 0.9229230880737305, 0.9295384883880615, 0.931538462638855, 0.932769238948822, 0.9372307658195496, 0.9418461322784424, 0.9469230771064758, 0.9523077011108398, 0.9521538615226746, 0.9421538710594177, 0.9432307481765747, 0.9536923170089722, 0.9578461647033691, 0.9652307629585266, 0.9650769233703613, 0.9676923155784607, 0.9556922912597656, 0.9672307968139648, 0.9696922898292542]</t>
+  </si>
+  <si>
+    <t>[0.8243983387947083, 0.8886306881904602, 0.8902904391288757, 0.9075518846511841, 0.9130290746688843, 0.9151867032051086, 0.9287967085838318, 0.927966833114624, 0.935767650604248, 0.9367634654045105, 0.940248966217041, 0.9477178454399109, 0.9503734707832336, 0.946556031703949, 0.9548547863960266, 0.9545228481292725, 0.9583402276039124, 0.963983416557312, 0.9571784138679504, 0.9614937901496887, 0.9634854793548584]</t>
+  </si>
+  <si>
+    <t>[0.8539079427719116, 0.8582907319068909, 0.8780131340026855, 0.867786705493927, 0.8728999495506287, 0.878743588924408, 0.8816654682159424, 0.8838568329811096, 0.8750913143157959, 0.8714389801025391, 0.8765522241592407, 0.8794740438461304, 0.878743588924408, 0.8728999495506287, 0.88093501329422, 0.8897005319595337, 0.8823959231376648, 0.8699780702590942, 0.88093501329422, 0.8838568329811096, 0.8750913143157959, 0.8772826790809631, 0.8758217692375183, 0.88093501329422, 0.884587287902832, 0.8721694946289062, 0.8714389801025391, 0.8743608593940735, 0.8750913143157959, 0.8780131340026855, 0.884587287902832]</t>
+  </si>
+  <si>
+    <t>[0.9215832948684692, 0.9357729554176331, 0.9297983646392822, 0.9253174066543579, 0.9297983646392822, 0.9357729554176331, 0.9342793226242065, 0.9424943923950195, 0.9305452108383179, 0.93278568983078, 0.9380134344100952, 0.93278568983078, 0.9253174066543579, 0.9305452108383179, 0.9230769276618958, 0.9342793226242065, 0.9275578856468201, 0.9312919974327087, 0.9245705604553223, 0.9268110394477844, 0.9268110394477844, 0.9357729554176331, 0.9297983646392822]</t>
+  </si>
+  <si>
+    <t>[0.8780637383460999, 0.8878676295280457, 0.8823529481887817, 0.8860294222831726, 0.8909313678741455, 0.8805146813392639, 0.8860294222831726, 0.8774510025978088, 0.8841911554336548, 0.8921568393707275, 0.8909313678741455, 0.8933823704719543, 0.8835784196853638, 0.8848039507865906, 0.8860294222831726, 0.8805146813392639, 0.8848039507865906, 0.8823529481887817, 0.8811274766921997, 0.876838207244873, 0.8799019455909729, 0.8811274766921997, 0.8823529481887817, 0.8848039507865906, 0.876838207244873, 0.8799019455909729, 0.8848039507865906]</t>
+  </si>
+  <si>
+    <t>[0.8747540712356567, 0.8655737638473511, 0.8773770332336426, 0.8878688812255859, 0.8806557655334473, 0.8754098415374756, 0.8898360729217529, 0.8878688812255859, 0.8734426498413086, 0.9003278613090515, 0.8898360729217529, 0.8826229572296143, 0.8819671869277954, 0.9022950530052185, 0.8839344382286072, 0.886557400226593, 0.8852459192276001, 0.8859016299247742, 0.8813114762306213, 0.8859016299247742, 0.8852459192276001, 0.8734426498413086, 0.8740983605384827, 0.8931147456169128, 0.8799999952316284, 0.8872131109237671, 0.8786885142326355, 0.8780328035354614, 0.8786885142326355]</t>
+  </si>
+  <si>
+    <t>[0.9026845693588257, 0.8951342105865479, 0.8984899520874023, 0.9186241626739502, 0.9043624401092529, 0.9077181220054626, 0.8926174640655518, 0.8917785286903381, 0.9085570573806763, 0.9110738039016724, 0.8951342105865479, 0.9093959927558899, 0.8875839114189148, 0.9060402512550354, 0.8976510167121887, 0.8892617225646973, 0.9018456339836121, 0.8875839114189148, 0.8892617225646973]</t>
+  </si>
+  <si>
+    <t>[0.8839826583862305, 0.8692640662193298, 0.8770563006401062, 0.8787878751754761, 0.8753246665000916, 0.8683982491493225, 0.8614718317985535, 0.8545454740524292, 0.8779220581054688, 0.8623376488685608, 0.8623376488685608, 0.864935040473938, 0.8787878751754761, 0.8701298832893372, 0.8458874225616455, 0.8606060743331909]</t>
+  </si>
+  <si>
+    <t>[0.8834356069564819, 0.9049080014228821, 0.9010736346244812, 0.9056748747825623, 0.8918711543083191, 0.9056748747825623, 0.9102760553359985, 0.8941717743873596, 0.9087423086166382, 0.8995398879051208, 0.8949386477470398, 0.9026073813438416, 0.8987730145454407, 0.8949386477470398, 0.8941717743873596, 0.900306761264801, 0.8911042809486389, 0.8995398879051208, 0.8903374075889587, 0.8964723944664001, 0.89570552110672, 0.8903374075889587]</t>
+  </si>
+  <si>
+    <t>[0.9010211825370789, 0.89552241563797, 0.8884524703025818, 0.900235652923584, 0.8970934748649597, 0.8900235891342163, 0.9057344794273376, 0.8986645936965942, 0.9049489498138428, 0.8900235891342163, 0.8947368264198303, 0.8782404065132141, 0.8931657671928406, 0.8923801779747009, 0.8892379999160767, 0.8813825845718384, 0.8963079452514648, 0.8884524703025818, 0.900235652923584, 0.9033778309822083, 0.870384931564331, 0.9112333059310913, 0.9183031916618347, 0.9025923013687134, 0.9018067717552185, 0.8900235891342163, 0.8774548172950745, 0.8963079452514648, 0.8892379999160767, 0.916732132434845, 0.9073055982589722, 0.9088766574859619, 0.9010211825370789, 0.8978790044784546, 0.8923801779747009, 0.9033778309822083, 0.89552241563797, 0.9104477763175964]</t>
+  </si>
+  <si>
+    <t>[0.9215517044067383, 0.9318965673446655, 0.9362068772315979, 0.9431034326553345, 0.9267241358757019, 0.932758629322052, 0.934482753276825, 0.9275861978530884, 0.9413793087005615, 0.943965494632721, 0.931034505367279, 0.9189655184745789, 0.934482753276825, 0.9353448152542114, 0.9129310250282288, 0.9017241597175598, 0.9198275804519653, 0.923275887966156, 0.9353448152542114, 0.9146551489830017, 0.9284482598304749, 0.8525862097740173, 0.9077585935592651, 0.9301724433898926, 0.923275887966156]</t>
+  </si>
+  <si>
+    <t>[0.8811880946159363, 0.8891088962554932, 0.8937293887138367, 0.8891088962554932, 0.8910890817642212, 0.8996699452400208, 0.9095709323883057, 0.8983498215675354, 0.8917492032051086, 0.89702969789505, 0.9023102521896362, 0.8897689580917358, 0.8996699452400208, 0.869966983795166, 0.8996699452400208, 0.8976897597312927, 0.8811880946159363, 0.8805280327796936, 0.895049512386322, 0.8937293887138367, 0.8904290199279785, 0.8739274144172668]</t>
+  </si>
+  <si>
+    <t>[0.9006756544113159, 0.8932432532310486, 0.9027026891708374, 0.8858107924461365, 0.8952702879905701, 0.8966216444969177, 0.8912162184715271, 0.8932432532310486, 0.8885135054588318, 0.8993242979049683, 0.9020270109176636, 0.8858107924461365, 0.8898648619651794, 0.8858107924461365, 0.8614864945411682, 0.9020270109176636, 0.8777027130126953, 0.8770270347595215]</t>
+  </si>
+  <si>
+    <t>[0.8923465013504028, 0.8990748524665833, 0.9192599058151245, 0.9133725762367249, 0.9268292784690857, 0.9276703000068665, 0.9259881973266602, 0.9276703000068665, 0.939444899559021, 0.9360807538032532, 0.9217830300331116, 0.9318755269050598, 0.9318755269050598, 0.9318755269050598, 0.9276703000068665, 0.920941948890686, 0.9402859807014465, 0.9226240515708923, 0.9301934242248535, 0.918418824672699, 0.9175778031349182, 0.920941948890686, 0.920941948890686, 0.9335576295852661, 0.9192599058151245, 0.9142135977745056, 0.9251471757888794, 0.920941948890686, 0.9226240515708923, 0.9217830300331116, 0.9192599058151245, 0.9301934242248535]</t>
+  </si>
+  <si>
+    <t>[0.8984962701797485, 0.8947368264198303, 0.9127819538116455, 0.9090225696563721, 0.9097744226455688, 0.9045112729072571, 0.9150375723838806, 0.9052631855010986, 0.9142857193946838, 0.9075188040733337, 0.9082706570625305, 0.8954887390136719, 0.897744357585907, 0.897744357585907, 0.9150375723838806, 0.9090225696563721, 0.9075188040733337, 0.9203007221221924, 0.9075188040733337, 0.9075188040733337, 0.9142857193946838, 0.9067668914794922, 0.9030075073242188, 0.8879699110984802, 0.902255654335022, 0.9090225696563721, 0.9015037417411804, 0.9015037417411804, 0.9112781882286072, 0.9045112729072571, 0.8939849734306335, 0.9135338068008423, 0.9075188040733337]</t>
+  </si>
+  <si>
+    <t>[0.9275653958320618, 0.9309188723564148, 0.9309188723564148, 0.9309188723564148, 0.9295774698257446, 0.923541247844696, 0.9262239933013916, 0.923541247844696, 0.9322602152824402, 0.9362843632698059, 0.934272289276123, 0.9289067983627319, 0.9289067983627319, 0.9275653958320618, 0.934272289276123, 0.9161636233329773, 0.934272289276123, 0.9295774698257446, 0.920187771320343, 0.9336016178131104, 0.9262239933013916, 0.9141515493392944, 0.923541247844696, 0.9262239933013916, 0.9161636233329773]</t>
+  </si>
+  <si>
+    <t>[0.9428571462631226, 0.938655436038971, 0.9453781247138977, 0.9411764740943909, 0.9462184906005859, 0.9394958019256592, 0.9428571462631226, 0.9310924410820007, 0.938655436038971, 0.9352940917015076, 0.938655436038971, 0.9378151297569275, 0.938655436038971, 0.9352940917015076, 0.9344537854194641, 0.9352940917015076, 0.9260504245758057, 0.9369747638702393, 0.9394958019256592, 0.924369752407074]</t>
+  </si>
+  <si>
+    <t>[0.9087536931037903, 0.9139465689659119, 0.9124628901481628, 0.9057863354682922, 0.8998516201972961, 0.8968842625617981, 0.9072700142860413, 0.9057863354682922, 0.8983679413795471, 0.9005934596061707, 0.9013352990150452, 0.8998516201972961, 0.8872403502464294, 0.8954005837440491, 0.8998516201972961, 0.8872403502464294, 0.8872403502464294]</t>
+  </si>
+  <si>
+    <t>[0.9140083193778992, 0.9070734977722168, 0.9160887598991394, 0.9056865572929382, 0.917475700378418, 0.9160887598991394, 0.9119278788566589, 0.9015256762504578, 0.903606116771698, 0.9084604978561401, 0.917475700378418, 0.917475700378418, 0.9119278788566589, 0.9001386761665344, 0.9063800573348999, 0.9015256762504578, 0.9049930572509766, 0.9084604978561401, 0.9015256762504578, 0.9022191166877747]</t>
+  </si>
+  <si>
+    <t>[0.920079231262207, 0.9062086939811707, 0.925363302230835, 0.9293262958526611, 0.9035667181015015, 0.925363302230835, 0.924042284488678, 0.9035667181015015, 0.920079231262207, 0.9299867749214172, 0.9174372553825378, 0.918097734451294, 0.9088507294654846, 0.924042284488678, 0.9062086939811707, 0.9055482149124146, 0.9114927053451538, 0.9220607876777649, 0.8672391176223755, 0.9187582731246948, 0.9147952198982239, 0.8989431858062744, 0.918097734451294, 0.9009246826171875, 0.9154557585716248]</t>
+  </si>
+  <si>
+    <t>[0.9398173093795776, 0.9387426376342773, 0.9425040483474731, 0.9430413842201233, 0.9392799735069275, 0.9425040483474731, 0.9408919811248779, 0.9360558986663818, 0.932294487953186, 0.9414293169975281, 0.9414293169975281, 0.9344438314437866, 0.946265459060669, 0.9408919811248779, 0.9425040483474731, 0.9403546452522278, 0.9360558986663818, 0.9387426376342773, 0.941966712474823, 0.9344438314437866, 0.9279956817626953, 0.9376679062843323, 0.9360558986663818, 0.9296077489852905, 0.9376679062843323, 0.9392799735069275, 0.9344438314437866, 0.9263836741447449]</t>
+  </si>
+  <si>
+    <t>[0.8799237608909607, 0.890724241733551, 0.8805590867996216, 0.8684879541397095, 0.8481575846672058, 0.8437103033065796, 0.8792884349822998, 0.8716645240783691, 0.8487929105758667, 0.8850063681602478, 0.8570520877838135, 0.8379923701286316, 0.8392630219459534, 0.8551461100578308, 0.8799237608909607, 0.8532401323318481, 0.8614993691444397]</t>
+  </si>
+  <si>
+    <t>[0.9290012121200562, 0.9271961450576782, 0.9211792945861816, 0.9350180625915527, 0.9314079284667969, 0.9320096373558044, 0.9265944361686707, 0.9217810034751892, 0.9374247789382935, 0.9350180625915527, 0.9193742275238037, 0.9265944361686707, 0.9277978539466858, 0.9368231296539307, 0.9247894287109375, 0.929602861404419, 0.9061371684074402, 0.9271961450576782, 0.9187725782394409, 0.9368231296539307, 0.9416365623474121, 0.938026487827301, 0.9265944361686707, 0.9181708693504333, 0.9338147044181824, 0.9193742275238037, 0.929602861404419, 0.9241877198219299, 0.9259927868843079, 0.9235860705375671, 0.9350180625915527, 0.9187725782394409, 0.929602861404419, 0.9302045702934265, 0.9199759364128113, 0.9314079284667969]</t>
+  </si>
+  <si>
+    <t>[0.8514150977134705, 0.8537735939025879, 0.8514150977134705, 0.8482704162597656, 0.8372641801834106, 0.8404088020324707, 0.8459119200706482, 0.847484290599823, 0.8388364911079407, 0.8506289124488831, 0.8372641801834106, 0.8451257944107056, 0.849056601524353, 0.8482704162597656, 0.8388364911079407, 0.8427672982215881, 0.8388364911079407]</t>
+  </si>
+  <si>
+    <t>[0.8779576420783997, 0.8947696089744568, 0.8972602486610413, 0.9078455567359924, 0.9003735780715942, 0.8966376185417175, 0.9072229266166687, 0.9128268957138062, 0.9103362560272217, 0.9090909361839294, 0.9234122037887573, 0.9109588861465454, 0.9090909361839294, 0.9003735780715942, 0.9078455567359924, 0.9078455567359924, 0.9128268957138062, 0.9072229266166687, 0.9066002368927002, 0.8916562795639038, 0.9066002368927002, 0.8985056281089783, 0.9009962677955627, 0.9090909361839294, 0.9146949052810669, 0.9009962677955627]</t>
+  </si>
+  <si>
+    <t>[0.9063376188278198, 0.9102635979652405, 0.911946177482605, 0.9147503972053528, 0.9141895771026611, 0.911946177482605, 0.9102635979652405, 0.9169938564300537, 0.9220414757728577, 0.9164329767227173, 0.9108244776725769, 0.9113852977752686, 0.9063376188278198, 0.9063376188278198, 0.908581018447876, 0.9080201983451843, 0.9012899398803711, 0.9024116396903992, 0.908581018447876, 0.9097027778625488, 0.911946177482605, 0.881099283695221, 0.9074593186378479, 0.9097027778625488]</t>
+  </si>
+  <si>
+    <t>[0.8676861524581909, 0.865026593208313, 0.8783244490623474, 0.8789893388748169, 0.8670212626457214, 0.8743351101875305, 0.8690159320831299, 0.863696813583374, 0.8623670339584351, 0.8630319237709045, 0.8583776354789734, 0.8623670339584351, 0.8603723645210266, 0.8364361524581909, 0.8530585169792175, 0.8670212626457214, 0.8617021441459656, 0.8563829660415649, 0.8484042286872864]</t>
+  </si>
+  <si>
+    <t>[0.9121184349060059, 0.9121184349060059, 0.9222941994667053, 0.9213690757751465, 0.9213690757751465, 0.9213690757751465, 0.9185938835144043, 0.9250693917274475, 0.9158186912536621, 0.914893627166748, 0.9176688194274902, 0.9213690757751465, 0.9204440116882324, 0.9204440116882324, 0.9204440116882324, 0.9185938835144043, 0.914893627166748, 0.9158186912536621, 0.9121184349060059, 0.9121184349060059, 0.9093431830406189, 0.9195189476013184, 0.9065679907798767]</t>
+  </si>
+  <si>
+    <t>[0.9161290526390076, 0.9131965041160583, 0.9313783049583435, 0.9249266982078552, 0.9214076399803162, 0.9266862273216248, 0.9249266982078552, 0.9061583280563354, 0.9284457564353943, 0.9284457564353943, 0.9173020720481873, 0.9413489699363708, 0.9290322661399841, 0.9284457564353943, 0.9272727370262146, 0.9126099944114685, 0.9161290526390076, 0.9149560332298279, 0.9055718183517456, 0.9214076399803162, 0.9243401885032654, 0.929618775844574, 0.9278592467308044, 0.9284457564353943, 0.9307917952537537, 0.9225806593894958, 0.9184750914573669]</t>
+  </si>
+  <si>
+    <t>[0.8992688655853271, 0.9057676792144775, 0.9147034883499146, 0.9147034883499146, 0.9155158400535583, 0.9106417298316956, 0.9187652468681335, 0.9138911366462708, 0.9195775985717773, 0.9195775985717773, 0.9138911366462708, 0.9187652468681335, 0.9098293781280518, 0.9138911366462708, 0.9147034883499146, 0.9138911366462708, 0.9203899502754211, 0.9138911366462708, 0.9155158400535583, 0.9098293781280518, 0.9065800309181213, 0.9098293781280518, 0.9090170860290527, 0.9025182723999023, 0.9057676792144775, 0.9106417298316956, 0.9090170860290527, 0.9065800309181213, 0.9098293781280518, 0.9163281917572021, 0.9049553275108337, 0.917140543460846]</t>
+  </si>
+  <si>
+    <t>[0.9080632925033569, 0.911077618598938, 0.9042953848838806, 0.9080632925033569, 0.8575734496116638, 0.8982667922973633, 0.8960060477256775, 0.8952524662017822, 0.8869630694389343, 0.8869630694389343, 0.8907309770584106, 0.894498884677887, 0.8862094879150391, 0.8960060477256775, 0.897513210773468, 0.8877166509628296, 0.8877166509628296]</t>
+  </si>
+  <si>
+    <t>[0.8839826583862305, 0.8926407098770142, 0.8839826583862305, 0.887445867061615, 0.8831169009208679, 0.903030276298523, 0.8952381014823914, 0.894372284412384, 0.8848484754562378, 0.8995671272277832, 0.890043318271637, 0.8909090757369995, 0.8917748928070068, 0.8839826583862305, 0.8917748928070068, 0.9012987017631531, 0.8952381014823914, 0.890043318271637, 0.8831169009208679, 0.8883116841316223, 0.8701298832893372]</t>
+  </si>
+  <si>
+    <t>[0.8608100414276123, 0.8819167017936707, 0.906446099281311, 0.903023362159729, 0.8722190260887146, 0.9007415771484375, 0.9041643142700195, 0.9075869917869568, 0.8813462853431702, 0.8807758092880249, 0.9013120532035828, 0.8956075310707092, 0.8893325924873352, 0.9041643142700195, 0.9024529457092285, 0.860239565372467, 0.8961780071258545, 0.9035938382148743, 0.8859098553657532, 0.8745008707046509, 0.8859098553657532, 0.8870507478713989, 0.8853394389152527]</t>
+  </si>
+  <si>
+    <t>[0.9051094651222229, 0.9107866883277893, 0.9091646671295166, 0.9067315459251404, 0.9213300943374634, 0.9237631559371948, 0.9132198095321655, 0.9197080135345459, 0.9188969731330872, 0.9205190539360046, 0.9083536267280579, 0.9172749519348145, 0.9140307903289795, 0.9075425863265991, 0.8937550783157349, 0.9326844811439514, 0.8978102207183838, 0.9270073175430298, 0.9197080135345459, 0.9278183579444885, 0.9334955215454102, 0.9253852367401123, 0.9221411347389221, 0.9107866883277893, 0.9197080135345459, 0.9334955215454102, 0.9237631559371948, 0.9326844811439514, 0.9026764035224915, 0.9229521751403809, 0.9180859923362732, 0.9172749519348145, 0.9197080135345459, 0.9351176023483276, 0.9294403791427612, 0.9286293387413025, 0.9213300943374634, 0.911597728729248, 0.9164639115333557, 0.9359286427497864, 0.9278183579444885, 0.9270073175430298, 0.9229521751403809, 0.9205190539360046, 0.9197080135345459, 0.9253852367401123, 0.9294403791427612, 0.9237631559371948, 0.9107866883277893, 0.9180859923362732, 0.9270073175430298, 0.9180859923362732, 0.9075425863265991, 0.9180859923362732, 0.9253852367401123]</t>
+  </si>
+  <si>
+    <t>[0.9190173149108887, 0.9099181294441223, 0.9190173149108887, 0.9090082049369812, 0.9035486578941345, 0.9208371043205261, 0.9162875413894653, 0.9153776168823242, 0.9126478433609009, 0.8989990949630737, 0.9208371043205261, 0.907188355922699, 0.8698816895484924, 0.9099181294441223, 0.9080982804298401, 0.8953593969345093, 0.8999090194702148, 0.8908098340034485, 0.9026387333869934, 0.9035486578941345, 0.9099181294441223]</t>
+  </si>
+  <si>
+    <t>[0.9254627227783203, 0.9299649596214294, 0.9344672560691833, 0.9199599623680115, 0.9329664707183838, 0.931465744972229, 0.9339669942855835, 0.9319660067558289, 0.9234617352485657, 0.9319660067558289, 0.9259629845619202, 0.9289644956588745, 0.9279639720916748, 0.9334667325019836, 0.9319660067558289, 0.9294647574424744, 0.921460747718811, 0.92646324634552]</t>
+  </si>
+  <si>
+    <t>[0.954356849193573, 0.9450207352638245, 0.954356849193573, 0.9553942084312439, 0.9553942084312439, 0.9574688673019409, 0.9512448310852051, 0.9481327533721924, 0.9491701126098633, 0.9398339986801147, 0.9336099624633789, 0.9470954537391663, 0.9450207352638245, 0.9387966990470886, 0.9439833760261536, 0.9522821307182312, 0.9398339986801147, 0.9460580945014954, 0.9481327533721924, 0.954356849193573, 0.9429460763931274]</t>
+  </si>
+  <si>
+    <t>[0.9200226664543152, 0.9166194200515747, 0.9109472632408142, 0.9132161140441895, 0.9137833118438721, 0.9154849648475647, 0.906409502029419, 0.9200226664543152, 0.9217243194580078, 0.9137833118438721, 0.9194554686546326, 0.9143505096435547, 0.9166194200515747, 0.9132161140441895, 0.9183210730552673, 0.9052751064300537, 0.9126489162445068, 0.9143505096435547, 0.907543957233429, 0.8996029496192932, 0.9171866178512573, 0.9041406512260437, 0.8996029496192932, 0.9092456102371216]</t>
+  </si>
+  <si>
+    <t>[0.9138755798339844, 0.9162679314613342, 0.9210526347160339, 0.9246411323547363, 0.9204545617103577, 0.9174641370773315, 0.9108851552009583, 0.9132775068283081, 0.9204545617103577, 0.9180622100830078, 0.9198564887046814, 0.9204545617103577, 0.9078947305679321, 0.9043062329292297, 0.9198564887046814, 0.9001196026802063, 0.9186602830886841, 0.9150717854499817, 0.9084928035736084]</t>
+  </si>
+  <si>
+    <t>[0.8766643404960632, 0.8801681995391846, 0.8871759176254272, 0.878766655921936, 0.8822705149650574, 0.8766643404960632, 0.8717589378356934, 0.8794674277305603, 0.8731604814529419, 0.8738612532615662, 0.8703573942184448, 0.8822705149650574, 0.8801681995391846, 0.8647512197494507, 0.8689558506011963, 0.8822705149650574, 0.8766643404960632, 0.8710581660270691]</t>
+  </si>
+  <si>
+    <t>[0.8910890817642212, 0.9002828598022461, 0.894625186920166, 0.8995756506919861, 0.894625186920166, 0.895332396030426, 0.8783592581748962, 0.9016973376274109, 0.905940592288971, 0.8995756506919861, 0.893210768699646, 0.891796350479126, 0.896746814250946, 0.8811880946159363, 0.8840169906616211, 0.893210768699646, 0.8840169906616211, 0.8769448399543762, 0.8818953037261963, 0.8868458271026611, 0.8981612324714661, 0.8818953037261963, 0.8769448399543762, 0.8719943165779114]</t>
+  </si>
+  <si>
+    <t>[0.9131227135658264, 0.9131227135658264, 0.9167678952217102, 0.9149453043937683, 0.9155528545379639, 0.9082624316215515, 0.9015795588493347, 0.910692572593689, 0.9082624316215515, 0.9015795588493347, 0.9131227135658264, 0.896111786365509, 0.9034022092819214, 0.9046172499656677, 0.9088699817657471, 0.9027946591377258, 0.8948967456817627, 0.9021871089935303]</t>
+  </si>
+  <si>
+    <t>[0.8828451633453369, 0.875523030757904, 0.8828451633453369, 0.8807531595230103, 0.8556485176086426, 0.8650627732276917, 0.849372386932373, 0.857740581035614, 0.8723849654197693, 0.8671548366546631, 0.839958131313324, 0.8629707098007202, 0.8441422581672668, 0.8462343215942383, 0.839958131313324, 0.8326359987258911]</t>
+  </si>
+  <si>
+    <t>[0.8654258847236633, 0.8854688405990601, 0.8754473924636841, 0.8747315406799316, 0.8854688405990601, 0.8904796242713928, 0.8854688405990601, 0.8947744965553284, 0.8725841045379639, 0.8833214044570923, 0.8804581165313721, 0.8854688405990601, 0.8747315406799316, 0.879026472568512, 0.8725841045379639, 0.8568360805511475, 0.8711524605751038, 0.8589835166931152, 0.8589835166931152, 0.869005024433136, 0.856120228767395, 0.8811739683151245, 0.8697208166122437]</t>
+  </si>
+  <si>
+    <t>[0.9133075475692749, 0.9182772040367126, 0.9226946234703064, 0.9260077476501465, 0.9160684943199158, 0.9243512153625488, 0.9254555702209473, 0.921590268611908, 0.9232468008995056, 0.9177250266075134, 0.9182772040367126, 0.9182772040367126, 0.9204859137535095, 0.9188293814659119, 0.9155163168907166, 0.9210380911827087, 0.9044726490974426, 0.9160684943199158, 0.9149640798568726]</t>
+  </si>
+  <si>
+    <t>[0.8919506669044495, 0.8963016867637634, 0.8890500068664551, 0.8941261768341064, 0.8883248567581177, 0.8963016867637634, 0.9028281569480896, 0.90137779712677, 0.8970268368721008, 0.8948513269424438, 0.9028281569480896, 0.8999274969100952, 0.8992023468017578, 0.8926758766174316, 0.8883248567581177, 0.8926758766174316, 0.8999274969100952, 0.8955764770507812, 0.8941261768341064, 0.8948513269424438, 0.893401026725769, 0.8977519869804382]</t>
+  </si>
+  <si>
+    <t>[0.8932584524154663, 0.9094101190567017, 0.9122191071510315, 0.9101123809814453, 0.8995786309242249, 0.8904494643211365, 0.9129213690757751, 0.9023876190185547, 0.913623571395874, 0.9002808928489685, 0.8932584524154663, 0.9058988690376282, 0.9108145833015442, 0.913623571395874, 0.9066011309623718, 0.9101123809814453, 0.9164325594902039, 0.9030898809432983, 0.9178370833396912, 0.9016854166984558, 0.8890449404716492, 0.9002808928489685, 0.9073033928871155, 0.8862359523773193, 0.9058988690376282, 0.891853928565979, 0.8932584524154663, 0.903792142868042, 0.896769642829895, 0.891853928565979, 0.8848314881324768, 0.896769642829895, 0.875, 0.8862359523773193]</t>
+  </si>
+  <si>
+    <t>[0.8690119981765747, 0.9154191613197327, 0.904940128326416, 0.916167676448822, 0.9131736755371094, 0.9146706461906433, 0.913922131061554, 0.916167676448822, 0.904940128326416, 0.913922131061554, 0.910179615020752, 0.9041916131973267, 0.898952066898346, 0.9131736755371094, 0.9019461274147034, 0.8929640650749207, 0.902694582939148, 0.901197612285614, 0.9094311594963074]</t>
+  </si>
+  <si>
+    <t>[0.8903107643127441, 0.9006703495979309, 0.9055454134941101, 0.9067641496658325, 0.8860450983047485, 0.9079829454421997, 0.9073735475540161, 0.9171236753463745, 0.9061548113822937, 0.9037172198295593, 0.9043266177177429, 0.9104204773902893, 0.8982327580451965, 0.9031078815460205, 0.9110298752784729, 0.8994515538215637, 0.9067641496658325, 0.8939670920372009, 0.8988421559333801, 0.8848263025283813, 0.9037172198295593, 0.8970140218734741, 0.9031078815460205]</t>
+  </si>
+  <si>
+    <t>[0.8680601119995117, 0.850424587726593, 0.854343593120575, 0.8634878993034363, 0.8615283966064453, 0.8549967408180237, 0.8510777354240417, 0.8615283966064453, 0.8569562435150146, 0.8471587300300598, 0.8438928723335266, 0.8536903858184814, 0.8367080092430115, 0.8647942543029785, 0.850424587726593, 0.8569562435150146]</t>
+  </si>
+  <si>
+    <t>[0.9223410487174988, 0.9200900197029114, 0.9262802600860596, 0.9184017777442932, 0.9122115969657898, 0.9122115969657898, 0.9116488695144653, 0.9105233550071716, 0.9133371114730835, 0.913899838924408, 0.9206528067588806, 0.9043331742286682, 0.9150252938270569, 0.9093978404998779, 0.9200900197029114, 0.9161508083343506, 0.9150252938270569, 0.916713535785675]</t>
+  </si>
+  <si>
+    <t>[0.9030520915985107, 0.888689398765564, 0.865350067615509, 0.8797127604484558, 0.8689407706260681, 0.8824057579040527, 0.8599640727043152, 0.8563734292984009, 0.8662477731704712, 0.8752244114875793, 0.868043065071106, 0.8581687808036804, 0.8797127604484558, 0.850987434387207, 0.8590664267539978, 0.8644524216651917]</t>
+  </si>
+  <si>
+    <t>[0.9259454011917114, 0.9164915680885315, 0.917542040348053, 0.9107142686843872, 0.9212185144424438, 0.9196428656578064, 0.9222689270973206, 0.9227941036224365, 0.9227941036224365, 0.9159663915634155, 0.9254201650619507, 0.9259454011917114, 0.9149159789085388, 0.9201680421829224, 0.917542040348053, 0.9138655662536621]</t>
+  </si>
+  <si>
+    <t>[0.870278000831604, 0.8681396842002869, 0.8724162578582764, 0.8695651888847351, 0.883107602596283, 0.8788310885429382, 0.8809693455696106, 0.8781183362007141, 0.8816820979118347, 0.8781183362007141, 0.8795438408851624, 0.8895224332809448, 0.8823948502540588, 0.8531717658042908, 0.8838204145431519, 0.8624376058578491, 0.8717035055160522, 0.875980019569397, 0.8788310885429382, 0.8766927719116211, 0.8681396842002869, 0.8731290102005005, 0.8695651888847351, 0.8823948502540588, 0.8667141795158386, 0.868852436542511, 0.8823948502540588]</t>
+  </si>
+  <si>
+    <t>[0.8822254538536072, 0.8923410177230835, 0.8822254538536072, 0.8807803392410278, 0.8995664715766907, 0.9017341136932373, 0.897398829460144, 0.9147399067878723, 0.9067919254302979, 0.9075144529342651, 0.90101158618927, 0.9017341136932373, 0.8901734352111816, 0.900288999080658, 0.8995664715766907, 0.8923410177230835, 0.9060693383216858, 0.9031791687011719, 0.900288999080658, 0.8988439440727234, 0.9046242833137512, 0.8930636048316956, 0.875]</t>
+  </si>
+  <si>
+    <t>[0.9036027193069458, 0.9162609577178955, 0.9113923907279968, 0.9240506291389465, 0.9201558232307434, 0.9250243306159973, 0.9259980320930481, 0.929892897605896, 0.9133398532867432, 0.9065238833427429, 0.922103226184845, 0.9201558232307434, 0.9269717335700989, 0.9191820621490479, 0.9172346591949463, 0.910418689250946, 0.9172346591949463, 0.9201558232307434, 0.9123660922050476, 0.9065238833427429, 0.9065238833427429, 0.9084712862968445, 0.902629017829895]</t>
+  </si>
+  <si>
+    <t>[0.8572752475738525, 0.8609824180603027, 0.8572752475738525, 0.8609824180603027, 0.8674699068069458, 0.8582020401954651, 0.8489341735839844, 0.8646895289421082, 0.8637627363204956, 0.8489341735839844, 0.8646895289421082, 0.8619091510772705, 0.8443002700805664, 0.8582020401954651, 0.8637627363204956, 0.8544949293136597, 0.8646895289421082, 0.8646895289421082, 0.8619091510772705, 0.8507877588272095]</t>
+  </si>
+  <si>
+    <t>[0.8817451000213623, 0.8938002586364746, 0.9018369913101196, 0.9024110436439514, 0.89552241563797, 0.8760045766830444, 0.8794488906860352, 0.8725602626800537, 0.8892077803611755, 0.8926520943641663, 0.9070034623146057, 0.9098737239837646, 0.9018369913101196, 0.9047072529792786, 0.900688886642456, 0.8995407819747925, 0.900688886642456, 0.9018369913101196, 0.9012629389762878, 0.8972445726394653, 0.8983926773071289, 0.8863375186920166, 0.8949483633041382, 0.8817451000213623, 0.8869115710258484, 0.8972445726394653, 0.8840413093566895]</t>
+  </si>
+  <si>
+    <t>[0.8824489712715149, 0.8832653164863586, 0.8897958993911743, 0.8889796137809753, 0.8930612206459045, 0.8873469233512878, 0.8914285898208618, 0.9020408391952515, 0.8938775658607483, 0.895510196685791, 0.8848979473114014, 0.8710204362869263, 0.8922448754310608, 0.8848979473114014, 0.8791836500167847, 0.8865306377410889, 0.895510196685791, 0.8938775658607483, 0.8873469233512878, 0.8873469233512878, 0.8799999952316284, 0.8914285898208618, 0.8799999952316284]</t>
+  </si>
+  <si>
+    <t>[0.8871657848358154, 0.8903743028640747, 0.9021390080451965, 0.8925133943557739, 0.8759358525276184, 0.8973262310028076, 0.8802139163017273, 0.8598930239677429, 0.8898395895957947, 0.8818181753158569, 0.8919786214828491, 0.8711230158805847, 0.8818181753158569, 0.885026752948761, 0.863101601600647, 0.8577539920806885, 0.8983957171440125, 0.8882352709770203]</t>
+  </si>
+  <si>
+    <t>[0.9186795353889465, 0.9235104918479919, 0.9380032420158386, 0.9323671460151672, 0.9380032420158386, 0.933977484703064, 0.9388083815574646, 0.9404186606407166, 0.9363929033279419, 0.9307568669319153, 0.9436392784118652, 0.9307568669319153, 0.9363929033279419, 0.9331722855567932, 0.9412238597869873, 0.9106280207633972, 0.9194846749305725, 0.9299516677856445, 0.9227052927017212, 0.9210950136184692, 0.9315620064735413, 0.9178743958473206, 0.9219001531600952, 0.9299516677856445, 0.9307568669319153, 0.9323671460151672]</t>
+  </si>
+  <si>
+    <t>[0.8995434045791626, 0.9212328791618347, 0.9138127565383911, 0.8972602486610413, 0.9195205569267273, 0.926369845867157, 0.9126712083816528, 0.9189497828483582, 0.9069634675979614, 0.9075342416763306, 0.9246575236320496, 0.9189497828483582, 0.9160959124565125, 0.9212328791618347, 0.918379008769989, 0.9246575236320496, 0.922374427318573, 0.9206621050834656, 0.9075342416763306, 0.9081050157546997, 0.9149543642997742]</t>
+  </si>
+  <si>
+    <t>[[393   2  49]
+ [  1  17   1]
+ [ 49   1 318]]</t>
+  </si>
+  <si>
+    <t>[[224   1  28]
+ [  1   0   2]
+ [ 71   2 211]]</t>
+  </si>
+  <si>
+    <t>[[414   0   6]
+ [ 10  37   1]
+ [ 54   2  89]]</t>
+  </si>
+  <si>
+    <t>[[280   0   3]
+ [ 18  53   0]
+ [ 32   1  96]]</t>
+  </si>
+  <si>
+    <t>[[375   0   6]
+ [  1   7   0]
+ [ 32   8 248]]</t>
+  </si>
+  <si>
+    <t>[[468   2  16]
+ [  0   8   1]
+ [ 34   0 242]]</t>
+  </si>
+  <si>
+    <t>[[464   1  10]
+ [  0   8   1]
+ [ 27   2 173]]</t>
+  </si>
+  <si>
+    <t>[[328   0  34]
  [  0   0   0]
- [ 17   1 329]]</t>
-  </si>
-  <si>
-    <t>[[639   6  32]
- [ 11  10   0]
- [ 48   2 150]]</t>
-  </si>
-  <si>
-    <t>[[0.86 0.01 0.13]
- [0.07 0.91 0.02]
+ [102   3 216]]</t>
+  </si>
+  <si>
+    <t>[[405   0   6]
+ [  6  47   0]
+ [ 54   1  81]]</t>
+  </si>
+  <si>
+    <t>[[159   0  25]
+ [ 24  48   2]
+ [ 17   1 185]]</t>
+  </si>
+  <si>
+    <t>[[480   0  12]
+ [  2   7   3]
+ [ 67   0 326]]</t>
+  </si>
+  <si>
+    <t>[[330   0  13]
+ [  3   6   1]
+ [ 35   1 199]]</t>
+  </si>
+  <si>
+    <t>[[428   1   6]
+ [  4   5   2]
+ [ 14   0 179]]</t>
+  </si>
+  <si>
+    <t>[[361   0  15]
+ [  2  35   0]
+ [ 79   0 204]]</t>
+  </si>
+  <si>
+    <t>[[136   6   7]
+ [ 15  62   1]
+ [ 63   5  98]]</t>
+  </si>
+  <si>
+    <t>[[581   5  42]
+ [  5   6   1]
+ [ 60   1 226]]</t>
+  </si>
+  <si>
+    <t>[[208   1  30]
+ [  0   4   4]
+ [  8   2 249]]</t>
+  </si>
+  <si>
+    <t>[[429   0  11]
+ [  0  11   1]
+ [ 50   3 249]]</t>
+  </si>
+  <si>
+    <t>[[455   1   8]
+ [  0   1   2]
+ [ 54   0 233]]</t>
+  </si>
+  <si>
+    <t>[[274   1  28]
+ [  1   1   1]
+ [ 31   2 243]]</t>
+  </si>
+  <si>
+    <t>[[275   0   3]
+ [  1  36   0]
+ [109   3 196]]</t>
+  </si>
+  <si>
+    <t>[[552   1  29]
+ [  1  20   0]
+ [ 69   0 288]]</t>
+  </si>
+  <si>
+    <t>[[228   0  20]
+ [ 18  57   1]
+ [ 29   3  81]]</t>
+  </si>
+  <si>
+    <t>[[378   1  13]
+ [ 12   5   1]
+ [ 27   1 121]]</t>
+  </si>
+  <si>
+    <t>[[266   7  15]
+ [  4  14   6]
+ [ 18   0 278]]</t>
+  </si>
+  <si>
+    <t>[[446   4  35]
+ [  1   7   1]
+ [ 39   0 274]]</t>
+  </si>
+  <si>
+    <t>[[212   2  34]
+ [  1   0   2]
+ [ 20   0 158]]</t>
+  </si>
+  <si>
+    <t>[[550   2  16]
+ [ 13  35   0]
+ [ 71   1  99]]</t>
+  </si>
+  <si>
+    <t>[[409   0   8]
+ [  3   0   0]
+ [ 72   0 186]]</t>
+  </si>
+  <si>
+    <t>[[257   1   3]
+ [ 17  54   0]
+ [ 21   0 253]]</t>
+  </si>
+  <si>
+    <t>[[375   0   9]
+ [  0   0   0]
+ [ 38   1 236]]</t>
+  </si>
+  <si>
+    <t>[[508   1  11]
+ [  1  11   3]
+ [ 66   0 338]]</t>
+  </si>
+  <si>
+    <t>[[242   1  36]
+ [  0   5   0]
+ [ 91   1 140]]</t>
+  </si>
+  <si>
+    <t>[[329   2  17]
+ [  1   1   5]
+ [ 22   0 265]]</t>
+  </si>
+  <si>
+    <t>[[537   4  27]
+ [  6  14   3]
+ [ 14   0 150]]</t>
+  </si>
+  <si>
+    <t>[[159   0   9]
+ [ 25  83   0]
+ [ 36   1  91]]</t>
+  </si>
+  <si>
+    <t>[[465   0   2]
+ [  6  34   0]
+ [ 88   0 168]]</t>
+  </si>
+  <si>
+    <t>[[311   0  20]
+ [ 18  53   0]
+ [ 25   0 177]]</t>
+  </si>
+  <si>
+    <t>[[394   1  22]
+ [  3   7   2]
+ [ 47   0 156]]</t>
+  </si>
+  <si>
+    <t>[[274   1  32]
+ [  0   5   0]
+ [ 35   0 244]]</t>
+  </si>
+  <si>
+    <t>[[358   3  14]
+ [  3  15   1]
+ [ 33   0 370]]</t>
+  </si>
+  <si>
+    <t>[[360   1   9]
+ [  6   5   0]
+ [ 82   3  62]]</t>
+  </si>
+  <si>
+    <t>[[173   0   4]
+ [ 15  93   0]
+ [ 77   1  84]]</t>
+  </si>
+  <si>
+    <t>[[310   1  30]
+ [  3   9   3]
+ [ 15   0 361]]</t>
+  </si>
+  <si>
+    <t>[[417   1  14]
+ [  0   0   0]
+ [ 58   0 200]]</t>
+  </si>
+  <si>
+    <t>[[613   0   6]
+ [ 11   2   1]
+ [ 43   0 223]]</t>
+  </si>
+  <si>
+    <t>[[139   8   7]
+ [  2   7   3]
+ [ 12   0 159]]</t>
+  </si>
+  <si>
+    <t>[[502   5  37]
+ [  1   8   0]
+ [ 48   0 209]]</t>
+  </si>
+  <si>
+    <t>[[485   0  13]
+ [ 13  35   0]
+ [ 56   2  95]]</t>
+  </si>
+  <si>
+    <t>[[487   4  35]
+ [  2   7   0]
+ [ 48   1 281]]</t>
+  </si>
+  <si>
+    <t>[[387   2  25]
+ [  2   8   2]
+ [ 51   0 244]]</t>
+  </si>
+  <si>
+    <t>[[272   3  28]
+ [  0   1   2]
+ [ 16   0 260]]</t>
+  </si>
+  <si>
+    <t>[[141   3   5]
+ [ 14  63   1]
+ [ 77   0  89]]</t>
+  </si>
+  <si>
+    <t>[[359   0  18]
+ [  1   7   0]
+ [ 35   1 234]]</t>
+  </si>
+  <si>
+    <t>[[368   6   9]
+ [  9  12   2]
+ [  9   1 130]]</t>
+  </si>
+  <si>
+    <t>[[442   5  58]
+ [  0   0   0]
+ [ 50   0 191]]</t>
+  </si>
+  <si>
+    <t>[[378   1   5]
+ [  1   8   0]
+ [ 84   2 197]]</t>
+  </si>
+  <si>
+    <t>[[320   1   5]
+ [ 17  56   1]
+ [ 40   0 192]]</t>
+  </si>
+  <si>
+    <t>[[312   1  12]
+ [  2  44   3]
+ [ 74   2 225]]</t>
+  </si>
+  <si>
+    <t>[[312   1  31]
+ [  0   0   3]
+ [ 24   2 267]]</t>
+  </si>
+  <si>
+    <t>[[0.89 0.   0.11]
+ [0.05 0.89 0.05]
+ [0.13 0.   0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.89 0.   0.11]
+ [0.33 0.   0.67]
+ [0.25 0.01 0.74]]</t>
+  </si>
+  <si>
+    <t>[[0.99 0.   0.01]
+ [0.21 0.77 0.02]
+ [0.37 0.01 0.61]]</t>
+  </si>
+  <si>
+    <t>[[0.99 0.   0.01]
+ [0.25 0.75 0.  ]
+ [0.25 0.01 0.74]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.12 0.88 0.  ]
+ [0.11 0.03 0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.03]
+ [0.   0.89 0.11]
+ [0.12 0.   0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.   0.89 0.11]
+ [0.13 0.01 0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.91 0.   0.09]
+ [ nan  nan  nan]
+ [0.32 0.01 0.67]]</t>
+  </si>
+  <si>
+    <t>[[0.99 0.   0.01]
+ [0.11 0.89 0.  ]
+ [0.4  0.01 0.6 ]]</t>
+  </si>
+  <si>
+    <t>[[0.86 0.   0.14]
+ [0.32 0.65 0.03]
+ [0.08 0.   0.91]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.17 0.58 0.25]
+ [0.17 0.   0.83]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.04]
+ [0.3  0.6  0.1 ]
+ [0.15 0.   0.85]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.01]
+ [0.36 0.45 0.18]
+ [0.07 0.   0.93]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.04]
+ [0.05 0.95 0.  ]
+ [0.28 0.   0.72]]</t>
+  </si>
+  <si>
+    <t>[[0.91 0.04 0.05]
+ [0.19 0.79 0.01]
+ [0.38 0.03 0.59]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.01 0.07]
+ [0.42 0.5  0.08]
  [0.21 0.   0.79]]</t>
   </si>
   <si>
-    <t>[[0.96 0.   0.04]
- [0.63 0.26 0.11]
+    <t>[[0.87 0.   0.13]
+ [0.   0.5  0.5 ]
+ [0.03 0.01 0.96]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.   0.92 0.08]
+ [0.17 0.01 0.82]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.   0.33 0.67]
+ [0.19 0.   0.81]]</t>
+  </si>
+  <si>
+    <t>[[0.9  0.   0.09]
+ [0.33 0.33 0.33]
+ [0.11 0.01 0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.99 0.   0.01]
+ [0.03 0.97 0.  ]
+ [0.35 0.01 0.64]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.   0.05]
+ [0.05 0.95 0.  ]
+ [0.19 0.   0.81]]</t>
+  </si>
+  <si>
+    <t>[[0.92 0.   0.08]
+ [0.24 0.75 0.01]
+ [0.26 0.03 0.72]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.03]
+ [0.67 0.28 0.06]
+ [0.18 0.01 0.81]]</t>
+  </si>
+  <si>
+    <t>[[0.92 0.02 0.05]
+ [0.17 0.58 0.25]
  [0.06 0.   0.94]]</t>
   </si>
   <si>
-    <t>[[0.99 0.   0.01]
- [0.23 0.77 0.  ]
- [0.43 0.   0.57]]</t>
+    <t>[[0.92 0.01 0.07]
+ [0.11 0.78 0.11]
+ [0.12 0.   0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.85 0.01 0.14]
+ [0.33 0.   0.67]
+ [0.11 0.   0.89]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.03]
+ [0.27 0.73 0.  ]
+ [0.42 0.01 0.58]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [1.   0.   0.  ]
+ [0.28 0.   0.72]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.01]
+ [0.24 0.76 0.  ]
+ [0.08 0.   0.92]]</t>
   </si>
   <si>
     <t>[[0.98 0.   0.02]
  [ nan  nan  nan]
- [0.05 0.   0.95]]</t>
-  </si>
-  <si>
-    <t>[[0.94 0.01 0.05]
- [0.52 0.48 0.  ]
- [0.24 0.01 0.75]]</t>
+ [0.14 0.   0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.07 0.73 0.2 ]
+ [0.16 0.   0.84]]</t>
+  </si>
+  <si>
+    <t>[[0.87 0.   0.13]
+ [0.   1.   0.  ]
+ [0.39 0.   0.6 ]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.01 0.05]
+ [0.14 0.14 0.71]
+ [0.08 0.   0.92]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.01 0.05]
+ [0.26 0.61 0.13]
+ [0.09 0.   0.91]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.   0.05]
+ [0.23 0.77 0.  ]
+ [0.28 0.01 0.71]]</t>
+  </si>
+  <si>
+    <t>[[1.   0.   0.  ]
+ [0.15 0.85 0.  ]
+ [0.34 0.   0.66]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.   0.06]
+ [0.25 0.75 0.  ]
+ [0.12 0.   0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.   0.05]
+ [0.25 0.58 0.17]
+ [0.23 0.   0.77]]</t>
+  </si>
+  <si>
+    <t>[[0.89 0.   0.1 ]
+ [0.   1.   0.  ]
+ [0.13 0.   0.87]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.01 0.04]
+ [0.16 0.79 0.05]
+ [0.08 0.   0.92]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.02]
+ [0.55 0.45 0.  ]
+ [0.56 0.02 0.42]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.14 0.86 0.  ]
+ [0.48 0.01 0.52]]</t>
+  </si>
+  <si>
+    <t>[[0.91 0.   0.09]
+ [0.2  0.6  0.2 ]
+ [0.04 0.   0.96]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.03]
+ [ nan  nan  nan]
+ [0.22 0.   0.78]]</t>
+  </si>
+  <si>
+    <t>[[0.99 0.   0.01]
+ [0.79 0.14 0.07]
+ [0.16 0.   0.84]]</t>
+  </si>
+  <si>
+    <t>[[0.9  0.05 0.05]
+ [0.17 0.58 0.25]
+ [0.07 0.   0.93]]</t>
+  </si>
+  <si>
+    <t>[[0.92 0.01 0.07]
+ [0.11 0.89 0.  ]
+ [0.19 0.   0.81]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.03]
+ [0.27 0.73 0.  ]
+ [0.37 0.01 0.62]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.01 0.07]
+ [0.22 0.78 0.  ]
+ [0.15 0.   0.85]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.   0.06]
+ [0.17 0.67 0.17]
+ [0.17 0.   0.83]]</t>
+  </si>
+  <si>
+    <t>[[0.9  0.01 0.09]
+ [0.   0.33 0.67]
+ [0.06 0.   0.94]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.02 0.03]
+ [0.18 0.81 0.01]
+ [0.46 0.   0.54]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.   0.05]
+ [0.12 0.88 0.  ]
+ [0.13 0.   0.87]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.02 0.02]
+ [0.39 0.52 0.09]
+ [0.06 0.01 0.93]]</t>
+  </si>
+  <si>
+    <t>[[0.88 0.01 0.11]
+ [ nan  nan  nan]
+ [0.21 0.   0.79]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.01]
+ [0.11 0.89 0.  ]
+ [0.3  0.01 0.7 ]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.23 0.76 0.01]
+ [0.17 0.   0.83]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.04]
+ [0.04 0.9  0.06]
+ [0.25 0.01 0.75]]</t>
+  </si>
+  <si>
+    <t>[[0.91 0.   0.09]
+ [0.   0.   1.  ]
+ [0.08 0.01 0.91]]</t>
   </si>
 </sst>
 </file>
@@ -529,7 +1904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -575,37 +1950,37 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="G2">
-        <v>0.8362445414847162</v>
+        <v>0.8760529482551144</v>
       </c>
       <c r="H2">
-        <v>0.8542615345185604</v>
+        <v>0.8813341373410024</v>
       </c>
       <c r="I2">
-        <v>0.8684355036785419</v>
+        <v>0.867087872542284</v>
       </c>
       <c r="J2">
-        <v>0.8606437182976441</v>
+        <v>0.8740194464239854</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>311</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -613,37 +1988,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="G3">
-        <v>0.9305555555555556</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="H3">
-        <v>0.7204444146663826</v>
+        <v>0.5427777468500065</v>
       </c>
       <c r="I3">
-        <v>0.8984882687808931</v>
+        <v>0.5440918096519757</v>
       </c>
       <c r="J3">
-        <v>0.7597582321190283</v>
+        <v>0.5399462225691734</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -651,37 +2026,37 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="G4">
-        <v>0.833984375</v>
+        <v>0.8809135399673735</v>
       </c>
       <c r="H4">
-        <v>0.7746815781298539</v>
+        <v>0.7901135741652984</v>
       </c>
       <c r="I4">
-        <v>0.9112790025596565</v>
+        <v>0.9139700228873869</v>
       </c>
       <c r="J4">
-        <v>0.8175724877064964</v>
+        <v>0.837070974011588</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -689,37 +2064,37 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="D5">
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="G5">
-        <v>0.9629120879120879</v>
+        <v>0.8881987577639752</v>
       </c>
       <c r="H5">
-        <v>0.6415015846362144</v>
+        <v>0.8266880710124278</v>
       </c>
       <c r="I5">
-        <v>0.6432236605264091</v>
+        <v>0.9332210998877666</v>
       </c>
       <c r="J5">
-        <v>0.6422725692798685</v>
+        <v>0.8678817435104892</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -727,37 +2102,2127 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6">
+        <v>0.930576070901034</v>
+      </c>
+      <c r="H6">
+        <v>0.9067876932050161</v>
+      </c>
+      <c r="I6">
+        <v>0.7873874221604652</v>
+      </c>
+      <c r="J6">
+        <v>0.8247983818902497</v>
+      </c>
+      <c r="K6" t="s">
+        <v>315</v>
+      </c>
+      <c r="L6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7">
+        <v>0.9312581063553826</v>
+      </c>
+      <c r="H7">
+        <v>0.9095544820182501</v>
+      </c>
+      <c r="I7">
+        <v>0.8888779502325318</v>
+      </c>
+      <c r="J7">
+        <v>0.8980488604689293</v>
+      </c>
+      <c r="K7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8">
+        <v>0.9402332361516035</v>
+      </c>
+      <c r="H8">
+        <v>0.907388879238801</v>
+      </c>
+      <c r="I8">
+        <v>0.8708334339588214</v>
+      </c>
+      <c r="J8">
+        <v>0.8856785276249118</v>
+      </c>
+      <c r="K8" t="s">
+        <v>317</v>
+      </c>
+      <c r="L8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9">
+        <v>0.7964860907759883</v>
+      </c>
+      <c r="H9">
+        <v>0.5263248481093269</v>
+      </c>
+      <c r="I9">
+        <v>0.5422635658914728</v>
+      </c>
+      <c r="J9">
+        <v>0.5282834179506684</v>
+      </c>
+      <c r="K9" t="s">
+        <v>318</v>
+      </c>
+      <c r="L9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10">
+        <v>0.8883333333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.8225940493261069</v>
+      </c>
+      <c r="I10">
+        <v>0.9270562971202571</v>
+      </c>
+      <c r="J10">
+        <v>0.860602667552215</v>
+      </c>
+      <c r="K10" t="s">
+        <v>319</v>
+      </c>
+      <c r="L10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11">
+        <v>0.8503253796095445</v>
+      </c>
+      <c r="H11">
+        <v>0.8080363775641137</v>
+      </c>
+      <c r="I11">
+        <v>0.8824111153895521</v>
+      </c>
+      <c r="J11">
+        <v>0.8333930233127632</v>
+      </c>
+      <c r="K11" t="s">
+        <v>320</v>
+      </c>
+      <c r="L11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12">
+        <v>0.9063545150501672</v>
+      </c>
+      <c r="H12">
+        <v>0.7961532096236993</v>
+      </c>
+      <c r="I12">
+        <v>0.9434428900319963</v>
+      </c>
+      <c r="J12">
+        <v>0.8491052285796195</v>
+      </c>
+      <c r="K12" t="s">
+        <v>321</v>
+      </c>
+      <c r="L12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13">
+        <v>0.9098639455782312</v>
+      </c>
+      <c r="H13">
+        <v>0.8029692120009099</v>
+      </c>
+      <c r="I13">
+        <v>0.8960514293490411</v>
+      </c>
+      <c r="J13">
+        <v>0.8408484174260421</v>
+      </c>
+      <c r="K13" t="s">
+        <v>322</v>
+      </c>
+      <c r="L13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" t="s">
+        <v>263</v>
+      </c>
+      <c r="G14">
+        <v>0.9577464788732394</v>
+      </c>
+      <c r="H14">
+        <v>0.7886382134729463</v>
+      </c>
+      <c r="I14">
+        <v>0.916731280091871</v>
+      </c>
+      <c r="J14">
+        <v>0.8339879042602165</v>
+      </c>
+      <c r="K14" t="s">
+        <v>323</v>
+      </c>
+      <c r="L14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15">
         <v>25</v>
       </c>
-      <c r="D6">
+      <c r="E15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="H15">
+        <v>0.8756334618205907</v>
+      </c>
+      <c r="I15">
+        <v>0.9160829769210107</v>
+      </c>
+      <c r="J15">
+        <v>0.8892039376677839</v>
+      </c>
+      <c r="K15" t="s">
+        <v>324</v>
+      </c>
+      <c r="L15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16">
+        <v>0.7531806615776081</v>
+      </c>
+      <c r="H16">
+        <v>0.7659949728357587</v>
+      </c>
+      <c r="I16">
+        <v>0.8031191296905106</v>
+      </c>
+      <c r="J16">
+        <v>0.7636971943466967</v>
+      </c>
+      <c r="K16" t="s">
+        <v>325</v>
+      </c>
+      <c r="L16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17">
+        <v>0.8770226537216829</v>
+      </c>
+      <c r="H17">
+        <v>0.7375385605539403</v>
+      </c>
+      <c r="I17">
+        <v>0.7465098346127729</v>
+      </c>
+      <c r="J17">
+        <v>0.7416791841252272</v>
+      </c>
+      <c r="K17" t="s">
+        <v>326</v>
+      </c>
+      <c r="L17" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18">
+        <v>0.9110671936758893</v>
+      </c>
+      <c r="H18">
+        <v>0.7772276161397501</v>
+      </c>
+      <c r="I18">
+        <v>0.8047500638784503</v>
+      </c>
+      <c r="J18">
+        <v>0.7888127452703099</v>
+      </c>
+      <c r="K18" t="s">
+        <v>327</v>
+      </c>
+      <c r="L18" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G19">
+        <v>0.9137931034482759</v>
+      </c>
+      <c r="H19">
+        <v>0.9053899926416483</v>
+      </c>
+      <c r="I19">
+        <v>0.8784510468694472</v>
+      </c>
+      <c r="J19">
+        <v>0.8881081397446974</v>
+      </c>
+      <c r="K19" t="s">
+        <v>328</v>
+      </c>
+      <c r="L19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>209</v>
+      </c>
+      <c r="F20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G20">
+        <v>0.9137931034482759</v>
+      </c>
+      <c r="H20">
+        <v>0.7085944905015552</v>
+      </c>
+      <c r="I20">
+        <v>0.7842524544481905</v>
+      </c>
+      <c r="J20">
+        <v>0.7381656938600063</v>
+      </c>
+      <c r="K20" t="s">
+        <v>329</v>
+      </c>
+      <c r="L20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" t="s">
+        <v>270</v>
+      </c>
+      <c r="G21">
+        <v>0.8900343642611683</v>
+      </c>
+      <c r="H21">
+        <v>0.7060195149949777</v>
+      </c>
+      <c r="I21">
+        <v>0.6796023965141612</v>
+      </c>
+      <c r="J21">
+        <v>0.6908037986568064</v>
+      </c>
+      <c r="K21" t="s">
+        <v>330</v>
+      </c>
+      <c r="L21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F22" t="s">
+        <v>271</v>
+      </c>
+      <c r="G22">
+        <v>0.8138041733547352</v>
+      </c>
+      <c r="H22">
+        <v>0.8661817474767114</v>
+      </c>
+      <c r="I22">
+        <v>0.8740957534927384</v>
+      </c>
+      <c r="J22">
+        <v>0.8500355192424732</v>
+      </c>
+      <c r="K22" t="s">
+        <v>331</v>
+      </c>
+      <c r="L22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G23">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.9025190832346685</v>
+      </c>
+      <c r="I23">
+        <v>0.9161193698708786</v>
+      </c>
+      <c r="J23">
+        <v>0.9079746268346089</v>
+      </c>
+      <c r="K23" t="s">
+        <v>332</v>
+      </c>
+      <c r="L23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" t="s">
+        <v>273</v>
+      </c>
+      <c r="G24">
+        <v>0.8375286041189931</v>
+      </c>
+      <c r="H24">
+        <v>0.7953896660005709</v>
+      </c>
+      <c r="I24">
+        <v>0.8577361853832443</v>
+      </c>
+      <c r="J24">
+        <v>0.8212055305469602</v>
+      </c>
+      <c r="K24" t="s">
+        <v>333</v>
+      </c>
+      <c r="L24" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25">
+        <v>0.9016100178890877</v>
+      </c>
+      <c r="H25">
+        <v>0.6847146763254145</v>
+      </c>
+      <c r="I25">
+        <v>0.8390189435752985</v>
+      </c>
+      <c r="J25">
+        <v>0.7288665656899784</v>
+      </c>
+      <c r="K25" t="s">
+        <v>334</v>
+      </c>
+      <c r="L25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6">
-        <v>0.8897550111358574</v>
-      </c>
-      <c r="H6">
-        <v>0.723353496987175</v>
-      </c>
-      <c r="I6">
-        <v>0.765068053033669</v>
-      </c>
-      <c r="J6">
-        <v>0.7425384574703946</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" t="s">
+        <v>275</v>
+      </c>
+      <c r="G26">
+        <v>0.9177631578947368</v>
+      </c>
+      <c r="H26">
+        <v>0.8153778778778779</v>
+      </c>
+      <c r="I26">
+        <v>0.8400145546884676</v>
+      </c>
+      <c r="J26">
+        <v>0.8267623716153129</v>
+      </c>
+      <c r="K26" t="s">
+        <v>335</v>
+      </c>
+      <c r="L26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F27" t="s">
+        <v>276</v>
+      </c>
+      <c r="G27">
+        <v>0.9008674101610905</v>
+      </c>
+      <c r="H27">
+        <v>0.857588255888707</v>
+      </c>
+      <c r="I27">
+        <v>0.812643359118867</v>
+      </c>
+      <c r="J27">
+        <v>0.8327517813267477</v>
+      </c>
+      <c r="K27" t="s">
+        <v>336</v>
+      </c>
+      <c r="L27" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" t="s">
+        <v>277</v>
+      </c>
+      <c r="G28">
+        <v>0.8624708624708625</v>
+      </c>
+      <c r="H28">
+        <v>0.5808263863718738</v>
+      </c>
+      <c r="I28">
+        <v>0.5747680781086383</v>
+      </c>
+      <c r="J28">
+        <v>0.5769864156960931</v>
+      </c>
+      <c r="K28" t="s">
+        <v>337</v>
+      </c>
+      <c r="L28" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" t="s">
+        <v>278</v>
+      </c>
+      <c r="G29">
+        <v>0.8691232528589581</v>
+      </c>
+      <c r="H29">
+        <v>0.7588079647475497</v>
+      </c>
+      <c r="I29">
+        <v>0.8831433610772232</v>
+      </c>
+      <c r="J29">
+        <v>0.8071342038760684</v>
+      </c>
+      <c r="K29" t="s">
+        <v>338</v>
+      </c>
+      <c r="L29" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>219</v>
+      </c>
+      <c r="F30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30">
+        <v>0.8775811209439528</v>
+      </c>
+      <c r="H30">
+        <v>0.5672485267599874</v>
+      </c>
+      <c r="I30">
+        <v>0.6012680696373293</v>
+      </c>
+      <c r="J30">
+        <v>0.5769629942476239</v>
+      </c>
+      <c r="K30" t="s">
+        <v>339</v>
+      </c>
+      <c r="L30" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L6" t="s">
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31">
+        <v>0.9306930693069307</v>
+      </c>
+      <c r="H31">
+        <v>0.8895317913390608</v>
+      </c>
+      <c r="I31">
+        <v>0.9470952908320492</v>
+      </c>
+      <c r="J31">
+        <v>0.9121067566432028</v>
+      </c>
+      <c r="K31" t="s">
+        <v>340</v>
+      </c>
+      <c r="L31" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32">
+        <v>0.9271623672230652</v>
+      </c>
+      <c r="H32">
+        <v>0.6115814393939394</v>
+      </c>
+      <c r="I32">
+        <v>0.6237518736308082</v>
+      </c>
+      <c r="J32">
+        <v>0.6162403886368755</v>
+      </c>
+      <c r="K32" t="s">
+        <v>341</v>
+      </c>
+      <c r="L32" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33">
+        <v>55</v>
+      </c>
+      <c r="E33" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33">
+        <v>0.9126730564430245</v>
+      </c>
+      <c r="H33">
+        <v>0.8489633578742489</v>
+      </c>
+      <c r="I33">
+        <v>0.9201240667545015</v>
+      </c>
+      <c r="J33">
+        <v>0.8789495300910826</v>
+      </c>
+      <c r="K33" t="s">
+        <v>342</v>
+      </c>
+      <c r="L33" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" t="s">
+        <v>283</v>
+      </c>
+      <c r="G34">
+        <v>0.75</v>
+      </c>
+      <c r="H34">
+        <v>0.8236105961356239</v>
+      </c>
+      <c r="I34">
+        <v>0.7454889954889955</v>
+      </c>
+      <c r="J34">
+        <v>0.7701525054466231</v>
+      </c>
+      <c r="K34" t="s">
+        <v>343</v>
+      </c>
+      <c r="L34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35">
+        <v>0.926791277258567</v>
+      </c>
+      <c r="H35">
+        <v>0.6705347964809697</v>
+      </c>
+      <c r="I35">
+        <v>0.7304457906592052</v>
+      </c>
+      <c r="J35">
+        <v>0.6877816492450638</v>
+      </c>
+      <c r="K35" t="s">
+        <v>344</v>
+      </c>
+      <c r="L35" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>225</v>
+      </c>
+      <c r="F36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36">
+        <v>0.928476821192053</v>
+      </c>
+      <c r="H36">
+        <v>0.8229174445755479</v>
+      </c>
+      <c r="I36">
+        <v>0.8584014894607354</v>
+      </c>
+      <c r="J36">
+        <v>0.8365621730635912</v>
+      </c>
+      <c r="K36" t="s">
+        <v>345</v>
+      </c>
+      <c r="L36" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>226</v>
+      </c>
+      <c r="F37" t="s">
+        <v>286</v>
+      </c>
+      <c r="G37">
+        <v>0.8242574257425742</v>
+      </c>
+      <c r="H37">
+        <v>0.80862819664903</v>
+      </c>
+      <c r="I37">
+        <v>0.8736075036075036</v>
+      </c>
+      <c r="J37">
+        <v>0.8274721920781335</v>
+      </c>
+      <c r="K37" t="s">
+        <v>346</v>
+      </c>
+      <c r="L37" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>227</v>
+      </c>
+      <c r="F38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G38">
+        <v>0.8741808650065531</v>
+      </c>
+      <c r="H38">
+        <v>0.8339891149179158</v>
+      </c>
+      <c r="I38">
+        <v>0.9400259567154232</v>
+      </c>
+      <c r="J38">
+        <v>0.8713613539410426</v>
+      </c>
+      <c r="K38" t="s">
+        <v>347</v>
+      </c>
+      <c r="L38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" t="s">
+        <v>288</v>
+      </c>
+      <c r="G39">
+        <v>0.8956953642384106</v>
+      </c>
+      <c r="H39">
+        <v>0.8540978454255791</v>
+      </c>
+      <c r="I39">
+        <v>0.9256694102689113</v>
+      </c>
+      <c r="J39">
+        <v>0.8833619839568311</v>
+      </c>
+      <c r="K39" t="s">
+        <v>348</v>
+      </c>
+      <c r="L39" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>229</v>
+      </c>
+      <c r="F40" t="s">
+        <v>289</v>
+      </c>
+      <c r="G40">
+        <v>0.8813291139240507</v>
+      </c>
+      <c r="H40">
+        <v>0.7655501214791713</v>
+      </c>
+      <c r="I40">
+        <v>0.8763513513513513</v>
+      </c>
+      <c r="J40">
+        <v>0.8099454254520166</v>
+      </c>
+      <c r="K40" t="s">
+        <v>349</v>
+      </c>
+      <c r="L40" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G41">
+        <v>0.8849407783417935</v>
+      </c>
+      <c r="H41">
+        <v>0.9223533715495469</v>
+      </c>
+      <c r="I41">
+        <v>0.8680408986445288</v>
+      </c>
+      <c r="J41">
+        <v>0.8926601926601926</v>
+      </c>
+      <c r="K41" t="s">
+        <v>350</v>
+      </c>
+      <c r="L41" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F42" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42">
+        <v>0.9322459222082811</v>
+      </c>
+      <c r="H42">
+        <v>0.8874181649325962</v>
+      </c>
+      <c r="I42">
+        <v>0.9010005786655534</v>
+      </c>
+      <c r="J42">
+        <v>0.8936588096747311</v>
+      </c>
+      <c r="K42" t="s">
+        <v>351</v>
+      </c>
+      <c r="L42" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>232</v>
+      </c>
+      <c r="F43" t="s">
+        <v>292</v>
+      </c>
+      <c r="G43">
+        <v>0.8087121212121212</v>
+      </c>
+      <c r="H43">
+        <v>0.6164290450004736</v>
+      </c>
+      <c r="I43">
+        <v>0.7441221402489008</v>
+      </c>
+      <c r="J43">
+        <v>0.6496676461571821</v>
+      </c>
+      <c r="K43" t="s">
+        <v>352</v>
+      </c>
+      <c r="L43" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>233</v>
+      </c>
+      <c r="F44" t="s">
+        <v>293</v>
+      </c>
+      <c r="G44">
+        <v>0.7829977628635347</v>
+      </c>
+      <c r="H44">
+        <v>0.7856769198577108</v>
+      </c>
+      <c r="I44">
+        <v>0.8655791151174531</v>
+      </c>
+      <c r="J44">
+        <v>0.7918658363573914</v>
+      </c>
+      <c r="K44" t="s">
+        <v>353</v>
+      </c>
+      <c r="L44" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" t="s">
+        <v>294</v>
+      </c>
+      <c r="G45">
+        <v>0.9289617486338798</v>
+      </c>
+      <c r="H45">
+        <v>0.8230657640232107</v>
+      </c>
+      <c r="I45">
+        <v>0.9204552020139491</v>
+      </c>
+      <c r="J45">
+        <v>0.8614728968092198</v>
+      </c>
+      <c r="K45" t="s">
+        <v>354</v>
+      </c>
+      <c r="L45" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46">
+        <v>34</v>
+      </c>
+      <c r="E46" t="s">
+        <v>235</v>
+      </c>
+      <c r="F46" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46">
+        <v>0.8942028985507247</v>
+      </c>
+      <c r="H46">
+        <v>0.5801571920757967</v>
+      </c>
+      <c r="I46">
+        <v>0.6041580586981472</v>
+      </c>
+      <c r="J46">
+        <v>0.5889908371174606</v>
+      </c>
+      <c r="K46" t="s">
+        <v>355</v>
+      </c>
+      <c r="L46" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s">
+        <v>236</v>
+      </c>
+      <c r="F47" t="s">
+        <v>296</v>
+      </c>
+      <c r="G47">
+        <v>0.932146829810901</v>
+      </c>
+      <c r="H47">
+        <v>0.6571699847356679</v>
+      </c>
+      <c r="I47">
+        <v>0.9628685657171414</v>
+      </c>
+      <c r="J47">
+        <v>0.7008457499289286</v>
+      </c>
+      <c r="K47" t="s">
+        <v>356</v>
+      </c>
+      <c r="L47" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="E48" t="s">
+        <v>237</v>
+      </c>
+      <c r="F48" t="s">
+        <v>297</v>
+      </c>
+      <c r="G48">
+        <v>0.9050445103857567</v>
+      </c>
+      <c r="H48">
+        <v>0.8052517657780817</v>
+      </c>
+      <c r="I48">
+        <v>0.7719972670198915</v>
+      </c>
+      <c r="J48">
+        <v>0.7864500318163218</v>
+      </c>
+      <c r="K48" t="s">
+        <v>357</v>
+      </c>
+      <c r="L48" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>238</v>
+      </c>
+      <c r="F49" t="s">
+        <v>298</v>
+      </c>
+      <c r="G49">
+        <v>0.8876543209876543</v>
+      </c>
+      <c r="H49">
+        <v>0.8749708595067945</v>
+      </c>
+      <c r="I49">
+        <v>0.7920162972396163</v>
+      </c>
+      <c r="J49">
+        <v>0.8250605403142237</v>
+      </c>
+      <c r="K49" t="s">
+        <v>358</v>
+      </c>
+      <c r="L49" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F50" t="s">
+        <v>299</v>
+      </c>
+      <c r="G50">
+        <v>0.8798283261802575</v>
+      </c>
+      <c r="H50">
+        <v>0.7746590938919075</v>
+      </c>
+      <c r="I50">
+        <v>0.900342279704494</v>
+      </c>
+      <c r="J50">
+        <v>0.8245173307876245</v>
+      </c>
+      <c r="K50" t="s">
+        <v>359</v>
+      </c>
+      <c r="L50" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>240</v>
+      </c>
+      <c r="F51" t="s">
+        <v>300</v>
+      </c>
+      <c r="G51">
+        <v>0.8959537572254336</v>
+      </c>
+      <c r="H51">
+        <v>0.851716147533638</v>
+      </c>
+      <c r="I51">
+        <v>0.7931546566720882</v>
+      </c>
+      <c r="J51">
+        <v>0.8176368003919562</v>
+      </c>
+      <c r="K51" t="s">
+        <v>360</v>
+      </c>
+      <c r="L51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>241</v>
+      </c>
+      <c r="F52" t="s">
+        <v>301</v>
+      </c>
+      <c r="G52">
+        <v>0.8862690707350902</v>
+      </c>
+      <c r="H52">
+        <v>0.8095226398100385</v>
+      </c>
+      <c r="I52">
+        <v>0.8599714860784973</v>
+      </c>
+      <c r="J52">
+        <v>0.831928908335095</v>
+      </c>
+      <c r="K52" t="s">
+        <v>361</v>
+      </c>
+      <c r="L52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>242</v>
+      </c>
+      <c r="F53" t="s">
+        <v>302</v>
+      </c>
+      <c r="G53">
+        <v>0.915807560137457</v>
+      </c>
+      <c r="H53">
+        <v>0.724350695939159</v>
+      </c>
+      <c r="I53">
+        <v>0.6969987228607918</v>
+      </c>
+      <c r="J53">
+        <v>0.7083053247247612</v>
+      </c>
+      <c r="K53" t="s">
+        <v>362</v>
+      </c>
+      <c r="L53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54">
+        <v>23</v>
+      </c>
+      <c r="E54" t="s">
+        <v>243</v>
+      </c>
+      <c r="F54" t="s">
+        <v>303</v>
+      </c>
+      <c r="G54">
+        <v>0.7455470737913485</v>
+      </c>
+      <c r="H54">
+        <v>0.7633818702792584</v>
+      </c>
+      <c r="I54">
+        <v>0.8330487268327559</v>
+      </c>
+      <c r="J54">
+        <v>0.7657166058265705</v>
+      </c>
+      <c r="K54" t="s">
+        <v>363</v>
+      </c>
+      <c r="L54" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55">
+        <v>23</v>
+      </c>
+      <c r="E55" t="s">
+        <v>244</v>
+      </c>
+      <c r="F55" t="s">
+        <v>304</v>
+      </c>
+      <c r="G55">
+        <v>0.916030534351145</v>
+      </c>
+      <c r="H55">
+        <v>0.8979737695254938</v>
+      </c>
+      <c r="I55">
+        <v>0.9041440626883664</v>
+      </c>
+      <c r="J55">
+        <v>0.900534512536478</v>
+      </c>
+      <c r="K55" t="s">
+        <v>364</v>
+      </c>
+      <c r="L55" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F56" t="s">
+        <v>305</v>
+      </c>
+      <c r="G56">
+        <v>0.9340659340659341</v>
+      </c>
+      <c r="H56">
+        <v>0.8037153560481975</v>
+      </c>
+      <c r="I56">
+        <v>0.8356442128729755</v>
+      </c>
+      <c r="J56">
+        <v>0.8179275338270012</v>
+      </c>
+      <c r="K56" t="s">
+        <v>365</v>
+      </c>
+      <c r="L56" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57">
+        <v>27</v>
+      </c>
+      <c r="E57" t="s">
+        <v>246</v>
+      </c>
+      <c r="F57" t="s">
+        <v>306</v>
+      </c>
+      <c r="G57">
+        <v>0.8485254691689008</v>
+      </c>
+      <c r="H57">
+        <v>0.5559262150281418</v>
+      </c>
+      <c r="I57">
+        <v>0.5551474189440689</v>
+      </c>
+      <c r="J57">
+        <v>0.5554172722248377</v>
+      </c>
+      <c r="K57" t="s">
+        <v>366</v>
+      </c>
+      <c r="L57" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58">
+        <v>23</v>
+      </c>
+      <c r="E58" t="s">
+        <v>247</v>
+      </c>
+      <c r="F58" t="s">
+        <v>307</v>
+      </c>
+      <c r="G58">
+        <v>0.8624260355029586</v>
+      </c>
+      <c r="H58">
+        <v>0.8564589876979453</v>
+      </c>
+      <c r="I58">
+        <v>0.8396449796167521</v>
+      </c>
+      <c r="J58">
+        <v>0.8349777058305644</v>
+      </c>
+      <c r="K58" t="s">
+        <v>367</v>
+      </c>
+      <c r="L58" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>248</v>
+      </c>
+      <c r="F59" t="s">
+        <v>308</v>
+      </c>
+      <c r="G59">
+        <v>0.8987341772151899</v>
+      </c>
+      <c r="H59">
+        <v>0.8553126852259494</v>
+      </c>
+      <c r="I59">
+        <v>0.9336531586985307</v>
+      </c>
+      <c r="J59">
+        <v>0.8861230520512757</v>
+      </c>
+      <c r="K59" t="s">
+        <v>368</v>
+      </c>
+      <c r="L59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60">
+        <v>26</v>
+      </c>
+      <c r="E60" t="s">
+        <v>249</v>
+      </c>
+      <c r="F60" t="s">
+        <v>309</v>
+      </c>
+      <c r="G60">
+        <v>0.8607407407407407</v>
+      </c>
+      <c r="H60">
+        <v>0.8684891631071033</v>
+      </c>
+      <c r="I60">
+        <v>0.8925979747020545</v>
+      </c>
+      <c r="J60">
+        <v>0.8745449860683713</v>
+      </c>
+      <c r="K60" t="s">
+        <v>369</v>
+      </c>
+      <c r="L60" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>250</v>
+      </c>
+      <c r="F61" t="s">
+        <v>310</v>
+      </c>
+      <c r="G61">
+        <v>0.9046875</v>
+      </c>
+      <c r="H61">
+        <v>0.6060798476069529</v>
+      </c>
+      <c r="I61">
+        <v>0.6052048726467332</v>
+      </c>
+      <c r="J61">
+        <v>0.6055456526044761</v>
+      </c>
+      <c r="K61" t="s">
+        <v>370</v>
+      </c>
+      <c r="L61" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
